--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B74935-0B10-4665-BE3B-1E3434B43667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA398C-38D8-4E14-B055-5BDDE4DACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Work" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Work'!$A$7:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6063,7 +6062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -6094,9 +6093,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6261,206 +6257,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6493,23 +6303,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -6526,14 +6324,176 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6553,8 +6513,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8138,6 +8119,42 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{598286D0-3716-4EC3-AC27-FDE412F31EB5}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Card User</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{85794CC6-9F5A-4F3D-8891-4C15B0D5E161}" type="parTrans" cxnId="{609EE936-CB8E-4AC3-992F-72ECD173DC9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F60C873F-412E-4681-8F40-D344AFE5185E}" type="sibTrans" cxnId="{609EE936-CB8E-4AC3-992F-72ECD173DC9F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{905F9FEC-A800-44BF-96D2-F0EA903F111B}" type="pres">
       <dgm:prSet presAssocID="{F436004C-8715-43C1-B7A8-683F3385D056}" presName="hierChild1" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -8172,7 +8189,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ADB6F464-1ED5-4E6B-AC24-DF9ECF7ED724}" type="pres">
-      <dgm:prSet presAssocID="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" presName="rootPict1" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="15" custLinFactX="-200000" custLinFactY="-47812" custLinFactNeighborX="-246780" custLinFactNeighborY="-100000"/>
+      <dgm:prSet presAssocID="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" presName="rootPict1" presStyleLbl="alignImgPlace1" presStyleIdx="0" presStyleCnt="16" custLinFactX="-200000" custLinFactY="-47812" custLinFactNeighborX="-246780" custLinFactNeighborY="-100000"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
@@ -8224,7 +8241,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{C2E25D39-15DA-4E5A-A7A6-340713610D62}" type="pres">
-      <dgm:prSet presAssocID="{9A8D0AC5-F483-4459-9FCA-F0C8A910F196}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="1" presStyleCnt="15" custLinFactX="377923" custLinFactY="-74729" custLinFactNeighborX="400000" custLinFactNeighborY="-100000"/>
+      <dgm:prSet presAssocID="{9A8D0AC5-F483-4459-9FCA-F0C8A910F196}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="1" presStyleCnt="16" custLinFactX="377923" custLinFactY="-74729" custLinFactNeighborX="400000" custLinFactNeighborY="-100000"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B05C41D7-B8B5-4413-9049-C1F9078C6144}" type="pres">
@@ -8264,7 +8281,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7A501E6B-3F55-49FE-8D21-F55D54434B82}" type="pres">
-      <dgm:prSet presAssocID="{95BB60E0-75EC-4E9C-B64A-E54BA54C83B3}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="2" presStyleCnt="15" custLinFactNeighborX="37472" custLinFactNeighborY="-1338"/>
+      <dgm:prSet presAssocID="{95BB60E0-75EC-4E9C-B64A-E54BA54C83B3}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="2" presStyleCnt="16" custLinFactNeighborX="37472" custLinFactNeighborY="-1338"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
@@ -8312,7 +8329,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9B8005E1-4AA0-4CC1-95D1-5220949B8082}" type="pres">
-      <dgm:prSet presAssocID="{9C0F457D-0D83-4CC4-BD85-19818C15A3EB}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="3" presStyleCnt="15" custLinFactNeighborX="-56212"/>
+      <dgm:prSet presAssocID="{9C0F457D-0D83-4CC4-BD85-19818C15A3EB}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="3" presStyleCnt="16" custLinFactNeighborX="-56212"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
@@ -8332,7 +8349,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2201A945-640A-4B3E-AC2B-F2952AFDAE39}" type="pres">
-      <dgm:prSet presAssocID="{7EAD61A7-EB4B-4F03-AB45-1F86B2E8D6EB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{7EAD61A7-EB4B-4F03-AB45-1F86B2E8D6EB}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9D090C80-924B-4C6F-B666-3C2243D064A9}" type="pres">
@@ -8348,7 +8365,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1418A22E-5D73-4B91-A206-2FB9A4BCBAEE}" type="pres">
-      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="5" custLinFactNeighborX="-28650">
+      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="6" custLinFactNeighborX="-28650">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -8356,7 +8373,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CC1836A9-A6C5-4AD0-980C-8ACDFF5C28B5}" type="pres">
-      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="4" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="4" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
@@ -8368,7 +8385,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{0DDAB930-0FC2-46A7-AD5D-3D18B595ED5E}" type="pres">
-      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FCDC653E-D493-42A7-8437-7A20D8044DF2}" type="pres">
@@ -8408,7 +8425,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1BBA7747-2D25-44FA-8EEC-8B7DB30B097A}" type="pres">
-      <dgm:prSet presAssocID="{B1A3A90A-EA77-46EE-A7E3-C3B58063E244}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="5" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{B1A3A90A-EA77-46EE-A7E3-C3B58063E244}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="5" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
@@ -8428,7 +8445,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{551C1AD4-6A86-4236-8BE1-1CA49CA5362F}" type="pres">
-      <dgm:prSet presAssocID="{8EA444AD-B1B1-4841-8A6E-ABC4F90C12B6}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{8EA444AD-B1B1-4841-8A6E-ABC4F90C12B6}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{59AB017E-0C56-4C28-94C7-3152F3DBAC0F}" type="pres">
@@ -8444,7 +8461,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{220869B6-ED1A-4212-82D5-977109B5DCCA}" type="pres">
-      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="5" custLinFactNeighborX="-28650">
+      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="6" custLinFactNeighborX="-28650">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -8452,7 +8469,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{00FE24BF-3BB6-461E-86D4-E540A938C4BE}" type="pres">
-      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="6" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="6" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
@@ -8464,7 +8481,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{25E494CA-26BC-4A67-AFAA-886F4D489CE7}" type="pres">
-      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{135F1EA9-6521-4ACF-9E71-85F5ED59F736}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AD17F0B5-E10E-49D0-8171-CA798AE593D9}" type="pres">
@@ -8476,7 +8493,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{89CCE488-D6C0-4108-B993-7BCC69BF4D51}" type="pres">
-      <dgm:prSet presAssocID="{90841AA9-1B93-4BDC-85AB-59D9933CEC4A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{90841AA9-1B93-4BDC-85AB-59D9933CEC4A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3433A57E-C6FA-4594-84A7-1E1829CCC987}" type="pres">
@@ -8492,7 +8509,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{78D2C5D9-7593-4E00-B94B-5389FFFE32E5}" type="pres">
-      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="5" custLinFactNeighborX="-28650">
+      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="6" custLinFactNeighborX="-28650">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -8500,7 +8517,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E07B0423-4D62-4539-AE79-4AEF109092E8}" type="pres">
-      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="7" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="7" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
@@ -8512,7 +8529,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{F5B4A777-524F-4B4B-B7EB-AA724F758444}" type="pres">
-      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{35F82745-AD4E-4B24-8B44-A1CCFA73757F}" type="pres">
@@ -8552,7 +8569,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E8000668-1759-48D1-9059-53191BF74642}" type="pres">
-      <dgm:prSet presAssocID="{BE481962-C521-4FE2-985F-8E1312905A61}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="8" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{BE481962-C521-4FE2-985F-8E1312905A61}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="8" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
@@ -8572,7 +8589,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E5D1B3B9-A1AA-434B-8D01-44D010E9902B}" type="pres">
-      <dgm:prSet presAssocID="{931E7D2D-47A1-426F-91A9-FECC6248A3E3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{931E7D2D-47A1-426F-91A9-FECC6248A3E3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C8BA07F0-F811-4A74-8DAF-CCD5737C4525}" type="pres">
@@ -8588,7 +8605,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CCE38020-C8EA-4B14-8627-188B60DF1C21}" type="pres">
-      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="5" custLinFactNeighborX="-28650">
+      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="6" custLinFactNeighborX="-28650">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -8596,7 +8613,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FB4780AA-B4AC-49DD-8957-FE2B213338FD}" type="pres">
-      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="9" presStyleCnt="15" custLinFactNeighborX="-95461"/>
+      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="9" presStyleCnt="16" custLinFactNeighborX="-95461"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
@@ -8608,7 +8625,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{84330B70-2299-4EDF-A585-FBA1A13E825E}" type="pres">
-      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2EF84746-8592-46E8-9D0D-A8824FC4AFA9}" type="pres">
@@ -8648,7 +8665,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7CDC5CC-16AD-466F-87AF-AC87446BCEF2}" type="pres">
-      <dgm:prSet presAssocID="{CCCAB4C2-EED0-49FA-80C9-20F711C52AC3}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="10" presStyleCnt="15"/>
+      <dgm:prSet presAssocID="{CCCAB4C2-EED0-49FA-80C9-20F711C52AC3}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="10" presStyleCnt="16"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
@@ -8696,7 +8713,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3FA1E6A2-0116-4B27-8EF7-5461F3F9A51A}" type="pres">
-      <dgm:prSet presAssocID="{35005F40-927C-4202-86B9-428C2558CB9A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="11" presStyleCnt="15"/>
+      <dgm:prSet presAssocID="{35005F40-927C-4202-86B9-428C2558CB9A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="11" presStyleCnt="16"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
@@ -8716,7 +8733,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F7D1FCE2-11E8-40C8-9F4E-FE11FCDD4240}" type="pres">
-      <dgm:prSet presAssocID="{4C4D5191-D83A-4891-827F-0F5272DFDCDC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{4C4D5191-D83A-4891-827F-0F5272DFDCDC}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{27A3DD3C-7DC6-40B7-B266-EA91078504B3}" type="pres">
@@ -8732,7 +8749,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E8A82886-75E2-448A-B614-C0C5D984AC76}" type="pres">
-      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="5">
+      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="6">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -8740,7 +8757,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4C669EAD-9E08-46A5-8A38-0780A199AB4A}" type="pres">
-      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="12" presStyleCnt="15"/>
+      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="12" presStyleCnt="16"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
@@ -8752,7 +8769,7 @@
       </dgm:spPr>
     </dgm:pt>
     <dgm:pt modelId="{CD2B23AC-CC75-41EF-B2FD-71EDF832D747}" type="pres">
-      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:prSet presAssocID="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AB6196DE-2948-4D91-9712-C5C7DBAB44E2}" type="pres">
@@ -8792,7 +8809,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3C866FE9-3A49-491B-9ED9-5ADB072B0A31}" type="pres">
-      <dgm:prSet presAssocID="{7915831D-E500-41A6-A7BC-A12719312786}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="13" presStyleCnt="15" custLinFactX="-462632" custLinFactY="164465" custLinFactNeighborX="-500000" custLinFactNeighborY="200000"/>
+      <dgm:prSet presAssocID="{7915831D-E500-41A6-A7BC-A12719312786}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="13" presStyleCnt="16" custLinFactX="-462632" custLinFactY="164465" custLinFactNeighborX="-500000" custLinFactNeighborY="200000"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
@@ -8840,7 +8857,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B366B889-7EB1-47CF-B30E-F9172E3AF477}" type="pres">
-      <dgm:prSet presAssocID="{69CC0878-5950-4F52-9675-6E2E64C8700A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="14" presStyleCnt="15" custLinFactX="-499728" custLinFactY="164465" custLinFactNeighborX="-500000" custLinFactNeighborY="200000"/>
+      <dgm:prSet presAssocID="{69CC0878-5950-4F52-9675-6E2E64C8700A}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="14" presStyleCnt="16" custLinFactX="-499728" custLinFactY="164465" custLinFactNeighborX="-500000" custLinFactNeighborY="200000"/>
       <dgm:spPr>
         <a:blipFill rotWithShape="1">
           <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
@@ -8857,6 +8874,46 @@
     </dgm:pt>
     <dgm:pt modelId="{9E36979E-7200-4303-BCF3-390C2BCC1320}" type="pres">
       <dgm:prSet presAssocID="{69CC0878-5950-4F52-9675-6E2E64C8700A}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE3834E3-F08C-485E-8E9D-8D8AA9523584}" type="pres">
+      <dgm:prSet presAssocID="{85794CC6-9F5A-4F3D-8891-4C15B0D5E161}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A7F51591-0B50-4267-91FA-E5F7DE0967B5}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8645BB5A-A97B-4D99-A0B8-FAF8D9EB157D}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E1DDA3D9-6FCB-4750-8683-E98688D2A9E9}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="6" custLinFactX="-124580" custLinFactY="102414" custLinFactNeighborX="-200000" custLinFactNeighborY="200000">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F7119B55-68F0-4EBC-B074-EE2230C15E23}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="rootPict" presStyleLbl="alignImgPlace1" presStyleIdx="15" presStyleCnt="16" custLinFactX="-500000" custLinFactY="178017" custLinFactNeighborX="-581934" custLinFactNeighborY="200000"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{158914E8-2281-41BB-BE1D-22B399CD5E2C}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{55D84E93-EFAA-4E7C-BD45-CE45167063C4}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60E664C9-D598-455D-B785-2E5CE134BD62}" type="pres">
+      <dgm:prSet presAssocID="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C613D842-4C1C-4CA0-8ACC-B55D3AA8A047}" type="pres">
@@ -8879,10 +8936,12 @@
     <dgm:cxn modelId="{F04C701B-76D9-4693-B6FB-15A22AD6D71E}" type="presOf" srcId="{7915831D-E500-41A6-A7BC-A12719312786}" destId="{8446B869-4790-40FF-B5C5-8AA3B90CE09F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{67FAF52B-F183-46BF-9BAB-15BAB3ABB8BE}" srcId="{B1A3A90A-EA77-46EE-A7E3-C3B58063E244}" destId="{0F868D16-ABEE-4BD8-A2BD-4A19392F8643}" srcOrd="1" destOrd="0" parTransId="{90841AA9-1B93-4BDC-85AB-59D9933CEC4A}" sibTransId="{1AA247CF-BEBF-442C-AF0B-4A477A39756F}"/>
     <dgm:cxn modelId="{80B7E52F-236D-4636-8876-564054B0341A}" type="presOf" srcId="{BC890EC1-72CE-4E46-93E8-49178374855B}" destId="{E4C895FC-B8CC-412C-94F2-B29C23414693}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{609EE936-CB8E-4AC3-992F-72ECD173DC9F}" srcId="{69CC0878-5950-4F52-9675-6E2E64C8700A}" destId="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" srcOrd="0" destOrd="0" parTransId="{85794CC6-9F5A-4F3D-8891-4C15B0D5E161}" sibTransId="{F60C873F-412E-4681-8F40-D344AFE5185E}"/>
     <dgm:cxn modelId="{7848285E-EE1C-4CE9-9499-77C3C6C371DB}" srcId="{9C0F457D-0D83-4CC4-BD85-19818C15A3EB}" destId="{091CBBCE-F8E5-40E6-85E7-9EDD97BE7123}" srcOrd="0" destOrd="0" parTransId="{7EAD61A7-EB4B-4F03-AB45-1F86B2E8D6EB}" sibTransId="{10C2258E-BEC4-43E9-B650-9A19ADA43ED9}"/>
     <dgm:cxn modelId="{328C8660-D322-4A68-8F91-4B208908B6D9}" type="presOf" srcId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" destId="{98FC4972-B7B2-4373-8F50-91226465E464}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{2111ED43-A18C-4C33-8306-D5B4522516D6}" type="presOf" srcId="{1982F2E1-764A-4B10-9848-4D63B62DC830}" destId="{2C625937-C91B-44C2-97FB-475FF984B4FD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{D8FFCA44-F34E-4023-89FB-3C21E8078FCB}" type="presOf" srcId="{35005F40-927C-4202-86B9-428C2558CB9A}" destId="{EDDF4B5E-DE53-4520-BFB1-221B2B732194}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{6AA18165-A705-4181-87F5-C5A254BA8BC3}" type="presOf" srcId="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" destId="{158914E8-2281-41BB-BE1D-22B399CD5E2C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{43AB8C68-DCE5-428E-B448-67AD5D68AB0C}" type="presOf" srcId="{16148D9F-2028-4086-8940-5A3FC4DC33A8}" destId="{A09F7CF8-FCD2-42A8-80D8-B40765957E53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{F1FD646A-5A2A-45C4-A9C2-1974531AE318}" srcId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" destId="{9C0F457D-0D83-4CC4-BD85-19818C15A3EB}" srcOrd="2" destOrd="0" parTransId="{1982F2E1-764A-4B10-9848-4D63B62DC830}" sibTransId="{A43459DF-7B40-4AEC-9278-13F0DEF2985B}"/>
     <dgm:cxn modelId="{D3A5596B-8C1A-4718-AD11-34069313521A}" type="presOf" srcId="{B1A3A90A-EA77-46EE-A7E3-C3B58063E244}" destId="{6AF8FFA5-D7AE-4673-9CFE-0C2507C6DBDB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -8916,6 +8975,7 @@
     <dgm:cxn modelId="{8C4806BF-150A-4617-B024-F5A8EEA8F98A}" type="presOf" srcId="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" destId="{CD2B23AC-CC75-41EF-B2FD-71EDF832D747}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{5328D2C0-DE99-4D7B-89AB-DD0B1F034751}" srcId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" destId="{95BB60E0-75EC-4E9C-B64A-E54BA54C83B3}" srcOrd="1" destOrd="0" parTransId="{2F831862-1BF7-438C-8389-0F3D9D8CE0A3}" sibTransId="{56B1B9F9-47E7-40C4-941B-7EC8BC039DD9}"/>
     <dgm:cxn modelId="{C0A3B7C3-6EBB-409D-AF7C-24163B5FA8A7}" srcId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" destId="{CCCAB4C2-EED0-49FA-80C9-20F711C52AC3}" srcOrd="5" destOrd="0" parTransId="{784BB003-2FD5-4A64-8D74-C4B01A0FF915}" sibTransId="{CCF0B407-E83E-4209-B217-EF8F189EEC48}"/>
+    <dgm:cxn modelId="{ABDB36C4-FAE6-4F22-B1F6-5815E34D1EB3}" type="presOf" srcId="{598286D0-3716-4EC3-AC27-FDE412F31EB5}" destId="{E1DDA3D9-6FCB-4750-8683-E98688D2A9E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{EB1DF0CC-379B-4556-BCFB-97548052217F}" type="presOf" srcId="{69CC0878-5950-4F52-9675-6E2E64C8700A}" destId="{9F5C67E1-4CDB-4982-99D6-5131D18E733F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{003C70CD-3E04-4D6A-9648-B87A895B2E7A}" type="presOf" srcId="{06CF27E3-CD8F-481C-B4E4-B0D453A2A552}" destId="{DA615960-3F0C-4640-986D-6907080E861A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{61A690D1-E581-4AAF-8BD7-1CDBD84E792A}" type="presOf" srcId="{CCCAB4C2-EED0-49FA-80C9-20F711C52AC3}" destId="{3DD18CAE-0D8E-45F9-826A-AF40F233E611}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -8928,6 +8988,7 @@
     <dgm:cxn modelId="{3C7091DB-C798-44CF-BCDB-D2BD2A7CE9A5}" srcId="{BE481962-C521-4FE2-985F-8E1312905A61}" destId="{414B598E-25CB-4D59-AA5A-4FD78395F2DD}" srcOrd="0" destOrd="0" parTransId="{931E7D2D-47A1-426F-91A9-FECC6248A3E3}" sibTransId="{4FA18F7D-1838-47BA-8D86-9C6013A2A9E1}"/>
     <dgm:cxn modelId="{89A919DD-1F81-4831-90F9-FC8679F245FB}" srcId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" destId="{9A8D0AC5-F483-4459-9FCA-F0C8A910F196}" srcOrd="0" destOrd="0" parTransId="{91FDAED0-1099-4D11-9B39-3657E587295C}" sibTransId="{23463DED-E24D-4782-B8BA-2AD1F7B5532D}"/>
     <dgm:cxn modelId="{FB106AE0-62C7-473B-B3EC-96FBAF7FE3EA}" srcId="{F436004C-8715-43C1-B7A8-683F3385D056}" destId="{CC8E18FD-6075-48EC-BC31-900C2512C6E1}" srcOrd="0" destOrd="0" parTransId="{8046E34E-2F4C-49B8-9EBF-AF427D35E1BF}" sibTransId="{A7C32CC2-627C-477C-A8CF-6AF9446A6726}"/>
+    <dgm:cxn modelId="{FDA5D9E9-C9BF-4BCD-9127-F15A615B27D1}" type="presOf" srcId="{85794CC6-9F5A-4F3D-8891-4C15B0D5E161}" destId="{DE3834E3-F08C-485E-8E9D-8D8AA9523584}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{A51F9AEE-10B6-48B6-87E5-90F12C5C5871}" srcId="{35005F40-927C-4202-86B9-428C2558CB9A}" destId="{AE1DD98E-703B-40FA-A543-0C966B2BCDEF}" srcOrd="0" destOrd="0" parTransId="{4C4D5191-D83A-4891-827F-0F5272DFDCDC}" sibTransId="{F357213E-4540-497A-93BF-47C81395C26C}"/>
     <dgm:cxn modelId="{EB5E7D47-2839-4C01-968C-92B4E712AB99}" type="presParOf" srcId="{905F9FEC-A800-44BF-96D2-F0EA903F111B}" destId="{6459438E-D876-4956-A14C-0402C324B895}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{9AA427D8-C2D5-4778-80A8-CF4BB610B43E}" type="presParOf" srcId="{6459438E-D876-4956-A14C-0402C324B895}" destId="{E004C629-0CA0-4DBF-B460-103453F577EB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
@@ -9046,6 +9107,14 @@
     <dgm:cxn modelId="{2463557E-BFC0-47B4-80E1-3CD0BD15C760}" type="presParOf" srcId="{6618B761-66D0-485E-A621-FD6BE3C20A43}" destId="{B366B889-7EB1-47CF-B30E-F9172E3AF477}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{AD7EF3B2-DE32-4D23-9E56-B6679578B918}" type="presParOf" srcId="{6618B761-66D0-485E-A621-FD6BE3C20A43}" destId="{ED30936A-4BAC-4A2F-81C5-1DBB026E8D60}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{D14471B2-11CE-4AC8-B02E-567A3DBF0243}" type="presParOf" srcId="{7729AC39-59D8-4FCE-95DC-ACAA9325BB9E}" destId="{9E36979E-7200-4303-BCF3-390C2BCC1320}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{3F3EE197-2C75-4AF8-AFA6-26A5996B87DD}" type="presParOf" srcId="{9E36979E-7200-4303-BCF3-390C2BCC1320}" destId="{DE3834E3-F08C-485E-8E9D-8D8AA9523584}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D6CA48E5-9F1A-453E-8086-C38EBED9ED5A}" type="presParOf" srcId="{9E36979E-7200-4303-BCF3-390C2BCC1320}" destId="{A7F51591-0B50-4267-91FA-E5F7DE0967B5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{D6B2E924-2C92-4E9D-9617-FA9616A60A9A}" type="presParOf" srcId="{A7F51591-0B50-4267-91FA-E5F7DE0967B5}" destId="{8645BB5A-A97B-4D99-A0B8-FAF8D9EB157D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4CB2AC00-A512-4B34-8FB4-22F3EBDD649B}" type="presParOf" srcId="{8645BB5A-A97B-4D99-A0B8-FAF8D9EB157D}" destId="{E1DDA3D9-6FCB-4750-8683-E98688D2A9E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{1EACE1AF-F914-47F6-9641-B680EF755FEE}" type="presParOf" srcId="{8645BB5A-A97B-4D99-A0B8-FAF8D9EB157D}" destId="{F7119B55-68F0-4EBC-B074-EE2230C15E23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{ED0E3FAB-0697-41CD-8380-AF8845DAFFE8}" type="presParOf" srcId="{8645BB5A-A97B-4D99-A0B8-FAF8D9EB157D}" destId="{158914E8-2281-41BB-BE1D-22B399CD5E2C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{4C0790AB-0F07-4E89-A0A3-3320CB7765B0}" type="presParOf" srcId="{A7F51591-0B50-4267-91FA-E5F7DE0967B5}" destId="{55D84E93-EFAA-4E7C-BD45-CE45167063C4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
+    <dgm:cxn modelId="{E7614C93-D13E-462A-A15C-8005B9D5C18D}" type="presParOf" srcId="{A7F51591-0B50-4267-91FA-E5F7DE0967B5}" destId="{60E664C9-D598-455D-B785-2E5CE134BD62}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{E78DB976-2333-4DF4-B491-290DF972FE6D}" type="presParOf" srcId="{7729AC39-59D8-4FCE-95DC-ACAA9325BB9E}" destId="{C613D842-4C1C-4CA0-8ACC-B55D3AA8A047}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
     <dgm:cxn modelId="{816360F2-336E-40E9-BF93-5F1E1F6629AA}" type="presParOf" srcId="{6459438E-D876-4956-A14C-0402C324B895}" destId="{91A102A5-E043-42FB-9C49-9F8FCCF96EBB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/pictureOrgChart+Icon"/>
   </dgm:cxnLst>
@@ -9067,6 +9136,61 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
+    <dsp:sp modelId="{DE3834E3-F08C-485E-8E9D-8D8AA9523584}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14241107" y="9271635"/>
+          <a:ext cx="211263" cy="1124338"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="211263" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1124338"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
     <dsp:sp modelId="{E4C895FC-B8CC-412C-94F2-B29C23414693}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
@@ -9074,8 +9198,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8775213" y="1227348"/>
-          <a:ext cx="6928184" cy="5057985"/>
+          <a:off x="8560926" y="3238745"/>
+          <a:ext cx="6766057" cy="4939622"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9089,13 +9213,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4822898"/>
+                <a:pt x="0" y="4710036"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="6928184" y="4822898"/>
+                <a:pt x="6766057" y="4710036"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="6928184" y="5057985"/>
+                <a:pt x="6766057" y="4939622"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9135,8 +9259,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8775213" y="1227348"/>
-          <a:ext cx="4468229" cy="5057985"/>
+          <a:off x="8560926" y="3238745"/>
+          <a:ext cx="4363667" cy="4939622"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9150,13 +9274,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="4822898"/>
+                <a:pt x="0" y="4710036"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4468229" y="4822898"/>
+                <a:pt x="4363667" y="4710036"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4468229" y="5057985"/>
+                <a:pt x="4363667" y="4939622"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9196,8 +9320,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16104569" y="4140754"/>
-          <a:ext cx="335839" cy="1029907"/>
+          <a:off x="15718767" y="6083973"/>
+          <a:ext cx="327980" cy="1005806"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9211,10 +9335,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1029907"/>
+                <a:pt x="0" y="1005806"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="335839" y="1029907"/>
+                <a:pt x="327980" y="1005806"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9254,8 +9378,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8775213" y="1227348"/>
-          <a:ext cx="8224927" cy="1793941"/>
+          <a:off x="8560926" y="3238745"/>
+          <a:ext cx="8032454" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9269,13 +9393,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="8224927" y="1558853"/>
+                <a:pt x="8032454" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="8224927" y="1793941"/>
+                <a:pt x="8032454" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9315,8 +9439,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8775213" y="1227348"/>
-          <a:ext cx="5515824" cy="1793941"/>
+          <a:off x="8560926" y="3238745"/>
+          <a:ext cx="5386747" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9330,13 +9454,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5515824" y="1558853"/>
+                <a:pt x="5386747" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="5515824" y="1793941"/>
+                <a:pt x="5386747" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9376,8 +9500,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10044909" y="4140754"/>
-          <a:ext cx="335839" cy="1029907"/>
+          <a:off x="9800910" y="6083973"/>
+          <a:ext cx="327980" cy="1005806"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9391,10 +9515,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1029907"/>
+                <a:pt x="0" y="1005806"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="335839" y="1029907"/>
+                <a:pt x="327980" y="1005806"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9434,8 +9558,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8775213" y="1227348"/>
-          <a:ext cx="2165267" cy="1793941"/>
+          <a:off x="8560926" y="3238745"/>
+          <a:ext cx="2114597" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9449,13 +9573,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2165267" y="1558853"/>
+                <a:pt x="2114597" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2165267" y="1793941"/>
+                <a:pt x="2114597" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9495,8 +9619,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7335806" y="4140754"/>
-          <a:ext cx="335839" cy="2619546"/>
+          <a:off x="7155203" y="6083973"/>
+          <a:ext cx="327980" cy="2558245"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9510,10 +9634,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="2619546"/>
+                <a:pt x="0" y="2558245"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="335839" y="2619546"/>
+                <a:pt x="327980" y="2558245"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9553,8 +9677,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7335806" y="4140754"/>
-          <a:ext cx="335839" cy="1029907"/>
+          <a:off x="7155203" y="6083973"/>
+          <a:ext cx="327980" cy="1005806"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9568,10 +9692,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1029907"/>
+                <a:pt x="0" y="1005806"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="335839" y="1029907"/>
+                <a:pt x="327980" y="1005806"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9611,8 +9735,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8231377" y="1227348"/>
-          <a:ext cx="543835" cy="1793941"/>
+          <a:off x="8029817" y="3238745"/>
+          <a:ext cx="531109" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9623,16 +9747,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="543835" y="0"/>
+                <a:pt x="531109" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="543835" y="1558853"/>
+                <a:pt x="531109" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1793941"/>
+                <a:pt x="0" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9672,8 +9796,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4844527" y="4140754"/>
-          <a:ext cx="91440" cy="1029907"/>
+          <a:off x="4721153" y="6083973"/>
+          <a:ext cx="91440" cy="1005806"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9687,10 +9811,10 @@
                 <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="45720" y="1029907"/>
+                <a:pt x="45720" y="1005806"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="118014" y="1029907"/>
+                <a:pt x="116323" y="1005806"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9730,8 +9854,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5785818" y="1227348"/>
-          <a:ext cx="2989394" cy="1793941"/>
+          <a:off x="5641487" y="3238745"/>
+          <a:ext cx="2919439" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9742,16 +9866,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2989394" y="0"/>
+                <a:pt x="2919439" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2989394" y="1558853"/>
+                <a:pt x="2919439" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1793941"/>
+                <a:pt x="0" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9791,8 +9915,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3731042" y="1227348"/>
-          <a:ext cx="5044171" cy="1793941"/>
+          <a:off x="3634794" y="3238745"/>
+          <a:ext cx="4926131" cy="1751961"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9803,16 +9927,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="5044171" y="0"/>
+                <a:pt x="4926131" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="5044171" y="1558853"/>
+                <a:pt x="4926131" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1558853"/>
+                <a:pt x="0" y="1522374"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="1793941"/>
+                <a:pt x="0" y="1751961"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9852,8 +9976,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6359051" y="1227348"/>
-          <a:ext cx="2416161" cy="229120"/>
+          <a:off x="6201305" y="3238745"/>
+          <a:ext cx="2359620" cy="223759"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9864,13 +9988,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2416161" y="0"/>
+                <a:pt x="2359620" y="0"/>
               </a:moveTo>
               <a:lnTo>
                 <a:pt x="0" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="229120"/>
+                <a:pt x="0" y="223759"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -9910,8 +10034,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7655749" y="107884"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="7467659" y="2145477"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9981,12 +10105,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9999,14 +10123,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>App</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7655749" y="107884"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="7467659" y="2145477"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ADB6F464-1ED5-4E6B-AC24-DF9ECF7ED724}">
@@ -10016,8 +10140,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7767673" y="219835"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="7576964" y="2254809"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10063,8 +10187,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5239587" y="1456469"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="5108038" y="3462504"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10165,8 +10289,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5239587" y="1456469"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="5108038" y="3462504"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C2E25D39-15DA-4E5A-A7A6-340713610D62}">
@@ -10176,8 +10300,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5351509" y="1568413"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="5217341" y="3571828"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10185,9 +10309,9 @@
         <a:solidFill>
           <a:schemeClr val="accent1">
             <a:tint val="50000"/>
-            <a:hueOff val="-908505"/>
-            <a:satOff val="2434"/>
-            <a:lumOff val="884"/>
+            <a:hueOff val="-847938"/>
+            <a:satOff val="2272"/>
+            <a:lumOff val="825"/>
             <a:alphaOff val="0"/>
           </a:schemeClr>
         </a:solidFill>
@@ -10225,8 +10349,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2887996" y="3021290"/>
-          <a:ext cx="1686092" cy="1119464"/>
+          <a:off x="2811477" y="4990706"/>
+          <a:ext cx="1646635" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10296,12 +10420,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10314,14 +10438,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Login Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2887996" y="3021290"/>
-        <a:ext cx="1686092" cy="1119464"/>
+        <a:off x="2811477" y="4990706"/>
+        <a:ext cx="1646635" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7A501E6B-3F55-49FE-8D21-F55D54434B82}">
@@ -10331,8 +10455,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2975215" y="3121253"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="2896655" y="5088330"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10378,8 +10502,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4666354" y="3021290"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="4548219" y="4990706"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10449,12 +10573,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10467,14 +10591,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Home Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4666354" y="3021290"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="4548219" y="4990706"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9B8005E1-4AA0-4CC1-95D1-5220949B8082}">
@@ -10484,8 +10608,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4778645" y="3133236"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="4657883" y="5100033"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10531,8 +10655,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4962542" y="4610929"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="4837476" y="6543146"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10602,12 +10726,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10620,14 +10744,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Card Product</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4962542" y="4610929"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="4837476" y="6543146"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CC1836A9-A6C5-4AD0-980C-8ACDFF5C28B5}">
@@ -10637,8 +10761,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5074750" y="4722875"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="4947059" y="6652472"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10684,8 +10808,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7111913" y="3021290"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="6936550" y="4990706"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10755,12 +10879,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10773,14 +10897,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Products Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7111913" y="3021290"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="6936550" y="4990706"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1BBA7747-2D25-44FA-8EEC-8B7DB30B097A}">
@@ -10790,8 +10914,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7224122" y="3133236"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="7046132" y="5100033"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10837,8 +10961,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7671645" y="4610929"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="7483183" y="6543146"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10908,12 +11032,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10926,14 +11050,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Card Product</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7671645" y="4610929"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="7483183" y="6543146"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{00FE24BF-3BB6-461E-86D4-E540A938C4BE}">
@@ -10943,8 +11067,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7783854" y="4722875"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="7592766" y="6652472"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10990,8 +11114,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7671645" y="6200568"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="7483183" y="8095585"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11061,12 +11185,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11079,14 +11203,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Card Customer</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7671645" y="6200568"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="7483183" y="8095585"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E07B0423-4D62-4539-AE79-4AEF109092E8}">
@@ -11096,8 +11220,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7783854" y="6312515"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="7592766" y="8204912"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11143,8 +11267,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9821017" y="3021290"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="9582257" y="4990706"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11214,12 +11338,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11232,14 +11356,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Edit Product Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9821017" y="3021290"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="9582257" y="4990706"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E8000668-1759-48D1-9059-53191BF74642}">
@@ -11249,8 +11373,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9933225" y="3133236"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="9691839" y="5100033"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11296,8 +11420,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10380749" y="4610929"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="10128891" y="6543146"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11367,12 +11491,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11385,14 +11509,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Card Customer</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="10380749" y="4610929"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="10128891" y="6543146"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FB4780AA-B4AC-49DD-8957-FE2B213338FD}">
@@ -11402,8 +11526,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="10492957" y="4722875"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="10238473" y="6652472"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11449,8 +11573,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13171573" y="3021290"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="12854406" y="4990706"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11520,12 +11644,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11538,14 +11662,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Customers Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="13171573" y="3021290"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="12854406" y="4990706"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B7CDC5CC-16AD-466F-87AF-AC87446BCEF2}">
@@ -11555,8 +11679,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="13283519" y="3133236"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="12963733" y="5100033"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11602,8 +11726,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15880676" y="3021290"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="15500113" y="4990706"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11673,12 +11797,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11691,14 +11815,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Edit Customer Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="15880676" y="3021290"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="15500113" y="4990706"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3FA1E6A2-0116-4B27-8EF7-5461F3F9A51A}">
@@ -11708,8 +11832,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="15992623" y="3133236"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="15609440" y="5100033"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11755,8 +11879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16440408" y="4610929"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="16046747" y="6543146"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11826,12 +11950,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11844,14 +11968,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Card Product</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="16440408" y="4610929"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="16046747" y="6543146"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4C669EAD-9E08-46A5-8A38-0780A199AB4A}">
@@ -11861,8 +11985,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="16552355" y="4722875"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="16156074" y="6652472"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11908,8 +12032,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12123978" y="6285334"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="11831327" y="8178368"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11979,12 +12103,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -11997,14 +12121,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Purchases Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="12123978" y="6285334"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="11831327" y="8178368"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3C866FE9-3A49-491B-9ED9-5ADB072B0A31}">
@@ -12014,8 +12138,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="12235934" y="6397280"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="11940662" y="8287694"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12061,8 +12185,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14583934" y="6285334"/>
-          <a:ext cx="2238928" cy="1119464"/>
+          <a:off x="14233716" y="8178368"/>
+          <a:ext cx="2186534" cy="1093267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12132,12 +12256,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="829336" tIns="15875" rIns="15875" bIns="15875" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1111250">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -12150,14 +12274,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="2500" kern="1200"/>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
             <a:t>Users Page</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="14583934" y="6285334"/>
-        <a:ext cx="2238928" cy="1119464"/>
+        <a:off x="14233716" y="8178368"/>
+        <a:ext cx="2186534" cy="1093267"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B366B889-7EB1-47CF-B30E-F9172E3AF477}">
@@ -12167,8 +12291,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="14695871" y="6397280"/>
-          <a:ext cx="671678" cy="895571"/>
+          <a:off x="14343034" y="8287694"/>
+          <a:ext cx="655960" cy="874613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12180,6 +12304,161 @@
             <a:fillRect l="-60000" r="-60000"/>
           </a:stretch>
         </a:blipFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E1DDA3D9-6FCB-4750-8683-E98688D2A9E9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14241107" y="9849339"/>
+          <a:ext cx="2186534" cy="1093267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="809929" tIns="15240" rIns="15240" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1066800">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" kern="1200"/>
+            <a:t>Card User</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="14241107" y="9849339"/>
+        <a:ext cx="2186534" cy="1093267"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F7119B55-68F0-4EBC-B074-EE2230C15E23}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="14350429" y="9958662"/>
+          <a:ext cx="655960" cy="874613"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="50000"/>
+            <a:hueOff val="-12719064"/>
+            <a:satOff val="34075"/>
+            <a:lumOff val="12376"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="lt1">
@@ -30328,16 +30607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107257</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>152880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>175292</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>96851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30352,8 +30631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10327822" y="33010928"/>
-          <a:ext cx="4082301" cy="324971"/>
+          <a:off x="6763551" y="36190998"/>
+          <a:ext cx="3691538" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -32301,16 +32580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>799</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>111258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>476408</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>66435</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409172</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>55229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -32325,8 +32604,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9851571" y="40522071"/>
-          <a:ext cx="4082301" cy="324971"/>
+          <a:off x="6657093" y="42245376"/>
+          <a:ext cx="4039079" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -32388,16 +32667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68835</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>29616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>544444</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>175293</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>477208</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>164087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -32412,8 +32691,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9919607" y="41011929"/>
-          <a:ext cx="4082301" cy="324971"/>
+          <a:off x="6725129" y="42735234"/>
+          <a:ext cx="4039079" cy="324971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -35851,6 +36130,2370 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504263</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B818ADA2-58E1-4D7A-9F6A-F33403428332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473822" y="16820029"/>
+          <a:ext cx="1266265" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New Product</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A28C76-285D-45F3-8D74-5D572ACDA498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913530" y="35567471"/>
+          <a:ext cx="1266265" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>New Customer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>246527</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A749AF-D132-45EE-B552-0BE8A46E0E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10802470" y="25089971"/>
+          <a:ext cx="8202704" cy="5009030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="84000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="84000">
+              <a:srgbClr val="1976D2"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF24D353-9D3F-4E49-9A53-4D497F35327A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14108204" y="24619323"/>
+          <a:ext cx="2106708" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New Customer Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>602875</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>177052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A422E55-E907-4282-A5AF-5C55C4533CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11037793" y="25280470"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{472806D4-6539-4FC0-9F52-E65FC79AB433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16562293" y="25365635"/>
+          <a:ext cx="1916206" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hello,  User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Name </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>17481</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>68323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5EF04B-4F36-4097-BD3B-E898A87DB944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11564470" y="25381322"/>
+          <a:ext cx="3580952" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163604</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>49306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Oval 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB248C43-FFB9-41DE-8B4C-00B614DB9CBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18317133" y="25235647"/>
+          <a:ext cx="519954" cy="564777"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>246527</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61CFEAC8-AA2B-433D-B440-848A7929B2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10802470" y="19005178"/>
+          <a:ext cx="8202704" cy="5009030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="84000">
+              <a:schemeClr val="bg1"/>
+            </a:gs>
+            <a:gs pos="84000">
+              <a:srgbClr val="1976D2"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD51990E-9748-47B5-AB8D-B337AD95CC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14108204" y="18534530"/>
+          <a:ext cx="1804148" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New Product Page</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>602875</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Oval 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C96D386-A173-4760-A627-C591D2D25E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11037793" y="19195677"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050E2152-E4F5-426C-A21E-FEEEC76B218B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16562293" y="19280842"/>
+          <a:ext cx="1916206" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hello,  User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Name </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>17481</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>79530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA07F2F-5573-4C5E-AC5C-16593AA948F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11564470" y="19296529"/>
+          <a:ext cx="3580952" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163604</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>60513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A782C7C-1260-47E6-AFEC-265934AB47DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18317133" y="19150854"/>
+          <a:ext cx="519954" cy="564777"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>122623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485854</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>66594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278375A3-FB52-47F7-B223-89E5276F554E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11172264" y="26826241"/>
+          <a:ext cx="1415943" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>Firdt Name:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>458960</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>106935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>71237</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>50906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextBox 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F3D703-2ECB-46A0-A36F-C072B36519F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12561313" y="26810553"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>171929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474649</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>115900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD977670-94BC-4AB5-99A5-5E593B9B9272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11161059" y="27256547"/>
+          <a:ext cx="1415943" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Last Name:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447755</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>156241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60032</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>100212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791C283A-F096-426A-BA09-6D22294072A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550108" y="27240859"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>86204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>474649</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>30175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728E4969-54B0-4497-B40A-30162EE94380}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11161059" y="27742322"/>
+          <a:ext cx="1415943" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>City</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>447755</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>70516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60032</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>14487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79B6952-6971-4282-BC0F-2ECB3C244FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550108" y="27726634"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>258057</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>82442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>549409</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>82442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="Rectangle: Rounded Corners 456">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43B806C-B222-41F1-A617-E83474C569A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13570645" y="28500560"/>
+          <a:ext cx="896470" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>484895</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>178335</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="Rectangle: Rounded Corners 457">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F3FFCF-5B57-49BD-B820-B7420F3D3291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12587248" y="28503281"/>
+          <a:ext cx="903675" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>92049</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>11686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228120</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>120543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="459" name="TextBox 458">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83375531-F84E-467F-B4E3-1DC16A0CFEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12194402" y="26334304"/>
+          <a:ext cx="2556542" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" u="sng"/>
+            <a:t>Add Customer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>54907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201704</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>189378</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="461" name="TextBox 460">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBD5F82-B723-45C3-8529-DD66BBC2C5F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10880911" y="20662525"/>
+          <a:ext cx="1423146" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>Name:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>174810</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>39219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>392204</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>173690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="TextBox 461">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9C7B18A-B9D1-4CC9-B352-3429909EFAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277163" y="20646837"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>104213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>48184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="TextBox 462">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02F0495-BE7A-4A73-B332-DCB0ECD71278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10869706" y="21092831"/>
+          <a:ext cx="1423146" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Price:</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>32496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="TextBox 463">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CFDD39E-8942-48D3-BF92-3E0547BDE923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12265958" y="21077143"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>18488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="465" name="TextBox 464">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAB676A-7575-44E5-8234-E1B2C73A543A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10869706" y="21578606"/>
+          <a:ext cx="1423146" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>Quentity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>2800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>137271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="466" name="TextBox 465">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8B0D71-6E79-4F77-B117-54911A82557F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12265958" y="21562918"/>
+          <a:ext cx="2637865" cy="324971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0"/>
+            <a:t>________________________</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571820</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>14726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>265259</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>14726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="Rectangle: Rounded Corners 466">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0209FC-DE0E-47ED-90DD-276B52C4128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13279291" y="22336844"/>
+          <a:ext cx="903674" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Add</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200745</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>17447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>499302</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>17447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="Rectangle: Rounded Corners 467">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD3D2DF-EA56-4B7D-AEF5-A4FE9920D6CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12303098" y="22339565"/>
+          <a:ext cx="903675" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cancel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413017</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>541884</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>52827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="TextBox 468">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE30E8F-72AC-41F5-9F2A-5EC7E58F09DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11910252" y="20170588"/>
+          <a:ext cx="2549338" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" u="sng"/>
+            <a:t>New Product</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -35858,16 +38501,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251115</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>4733555</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>161866</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3330784</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>54120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36197,73 +38840,73 @@
   </sheetPr>
   <dimension ref="B3:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="61.85546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="15" style="46"/>
-    <col min="9" max="9" width="23.5703125" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="15" style="46"/>
+    <col min="1" max="1" width="3.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="61.85546875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="15" style="45"/>
+    <col min="9" max="9" width="23.5703125" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="15" style="45"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="99" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="47">
+      <c r="B8" s="46">
         <v>1</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -36271,16 +38914,16 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="47">
+      <c r="B9" s="46">
         <v>1</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -36288,16 +38931,16 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="47">
+      <c r="B10" s="46">
         <v>2</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>127</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -36305,31 +38948,31 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>3</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="97"/>
+      <c r="D11" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <v>4</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>224</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -36337,239 +38980,239 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <v>5</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>225</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <v>6</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>225</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <v>7</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="134" t="s">
+      <c r="D15" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>225</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <v>8</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C16" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="134" t="s">
+      <c r="D16" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>225</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <v>9</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C17" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="134" t="s">
+      <c r="D17" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>164</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <v>10</v>
       </c>
-      <c r="C18" s="134" t="s">
+      <c r="C18" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D18" s="134" t="s">
+      <c r="D18" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>165</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <v>11</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>166</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <v>12</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E20" s="134" t="s">
+      <c r="E20" s="46" t="s">
         <v>167</v>
       </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="2:6" ht="30">
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <v>13</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C21" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="134" t="s">
+      <c r="E21" s="46" t="s">
         <v>168</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <v>14</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="135" t="s">
+      <c r="D22" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="46" t="s">
         <v>229</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <v>15</v>
       </c>
-      <c r="C23" s="134" t="s">
+      <c r="C23" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="46" t="s">
         <v>230</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="47">
+      <c r="B24" s="46">
         <v>16</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="46" t="s">
         <v>231</v>
       </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="47">
+      <c r="B25" s="46">
         <v>17</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="47">
+      <c r="B26" s="46">
         <v>18</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="47">
+      <c r="B27" s="46">
         <v>19</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="47">
+      <c r="B28" s="46">
         <v>20</v>
       </c>
-      <c r="C28" s="134"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="37.5">
-      <c r="C29" s="157" t="s">
+      <c r="C29" s="90" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="91" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
-      <c r="C31" s="157" t="s">
+      <c r="C31" s="90" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="158" t="s">
+      <c r="D31" s="91" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="37.5">
-      <c r="D33" s="158" t="s">
+      <c r="D33" s="91" t="s">
         <v>210</v>
       </c>
     </row>
@@ -36605,8 +39248,8 @@
   </sheetPr>
   <dimension ref="A2:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:G56"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52:G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -36616,665 +39259,669 @@
     <col min="3" max="3" width="25.85546875" style="6" customWidth="1"/>
     <col min="4" max="5" width="46.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="178.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="161" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="94" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="141"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="99"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="134"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="22.5">
-      <c r="B7" s="92">
+      <c r="B7" s="129">
         <v>2</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="22.5">
-      <c r="B8" s="93"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="21" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="22.5">
-      <c r="B9" s="93"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="22" t="s">
+      <c r="B9" s="130"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="22.5">
-      <c r="B10" s="93"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="23" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="22.5">
-      <c r="B11" s="93"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="24" t="s">
+      <c r="B11" s="130"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="93"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="24" t="s">
+      <c r="B12" s="130"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="93"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="24" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B14" s="105"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="41" t="s">
+      <c r="B14" s="140"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B15" s="92">
+      <c r="B15" s="129">
         <v>3</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="127" t="s">
+      <c r="D15" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="94" t="s">
+      <c r="E15" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="41" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B16" s="93"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="26" t="s">
+      <c r="B16" s="130"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B17" s="93"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="27" t="s">
+      <c r="B17" s="130"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B18" s="93"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="27" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B19" s="93"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="28" t="s">
+      <c r="B19" s="130"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B20" s="105"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="41" t="s">
+      <c r="B20" s="140"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="22.5">
-      <c r="B21" s="92">
+      <c r="B21" s="129">
         <v>4</v>
       </c>
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="94" t="s">
+      <c r="E21" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="22.5">
-      <c r="B22" s="93"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="29" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="22.5">
-      <c r="B23" s="93"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="30" t="s">
+      <c r="B23" s="130"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="120"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="34">
+      <c r="B25" s="33">
         <v>5</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B26" s="92">
+      <c r="B26" s="129">
         <v>6</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C26" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B27" s="93"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="31" t="s">
+      <c r="B27" s="130"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B28" s="105"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="40" t="s">
+      <c r="B28" s="140"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="2:6" ht="45" customHeight="1" thickBot="1">
-      <c r="B29" s="34">
+      <c r="B29" s="33">
         <v>7</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B30" s="34">
+      <c r="B30" s="33">
         <v>8</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="126" t="s">
+      <c r="D30" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B31" s="82">
+      <c r="B31" s="111">
         <v>9</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B32" s="83"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="130" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="121" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B33" s="83"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="52" t="s">
+      <c r="B33" s="112"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="132"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="52" t="s">
+      <c r="B34" s="112"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B35" s="83"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="57" t="s">
+      <c r="B35" s="112"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="83"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="89" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="109"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="121" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="57" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="83"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="59" t="s">
+      <c r="B37" s="112"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="83"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="59" t="s">
+      <c r="B38" s="112"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="83"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="60" t="s">
+      <c r="B39" s="112"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="83"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="60" t="s">
+      <c r="B40" s="112"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="83"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="61" t="s">
+      <c r="B41" s="112"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="2:6" ht="75">
-      <c r="B42" s="83"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="130" t="s">
+      <c r="B42" s="112"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="124" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="61" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="83"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="85" t="s">
+      <c r="B43" s="112"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="59" t="s">
+      <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="83"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="60" t="s">
+      <c r="B44" s="112"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="127"/>
+      <c r="F44" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="83"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="60" t="s">
+      <c r="B45" s="112"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="84"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="61" t="s">
+      <c r="B46" s="113"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B47" s="88">
+      <c r="B47" s="120">
         <v>10</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="83"/>
-      <c r="C48" s="121"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="63" t="s">
+      <c r="B48" s="112"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="83"/>
-      <c r="C49" s="121"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="64" t="s">
+      <c r="B49" s="112"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="83"/>
-      <c r="C50" s="121"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="63" t="s">
+      <c r="B50" s="112"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="84"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="63" t="s">
+    <row r="51" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B51" s="113"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="51"/>
-    </row>
-    <row r="53" spans="2:7" ht="15" customHeight="1">
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="2:7" s="6" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G54" s="162"/>
-    </row>
-    <row r="55" spans="2:7" s="159" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C55" s="159" t="s">
+    <row r="52" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="D55" s="159" t="s">
+      <c r="D52" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="E55" s="159" t="s">
+      <c r="E52" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F55" s="159" t="s">
+      <c r="F52" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G55" s="163" t="s">
+      <c r="G52" s="102" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="56" spans="2:7" s="159" customFormat="1" ht="45.75" customHeight="1">
-      <c r="D56" s="159" t="s">
+    <row r="53" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="E56" s="159" t="s">
+      <c r="E53" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F56" s="159" t="s">
+      <c r="F53" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="G56" s="163"/>
+      <c r="G53" s="102"/>
     </row>
-    <row r="57" spans="2:7" s="159" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G57" s="160"/>
+    <row r="54" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="50"/>
     </row>
-    <row r="58" spans="2:7" s="159" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G58" s="160"/>
+    <row r="55" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G55" s="102"/>
     </row>
-    <row r="59" spans="2:7" s="159" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G59" s="160"/>
+    <row r="56" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G56" s="102"/>
     </row>
-    <row r="60" spans="2:7" s="159" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G60" s="160"/>
+    <row r="57" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G57" s="93"/>
     </row>
-    <row r="61" spans="2:7" s="159" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G61" s="160"/>
+    <row r="58" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G58" s="93"/>
     </row>
-    <row r="62" spans="2:7" s="159" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G62" s="160"/>
+    <row r="60" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G60" s="93"/>
     </row>
-    <row r="63" spans="2:7" s="159" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G63" s="160"/>
+    <row r="61" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G61" s="93"/>
     </row>
-    <row r="64" spans="2:7" s="159" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G64" s="160"/>
+    <row r="62" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G62" s="93"/>
     </row>
-    <row r="65" spans="6:7" s="159" customFormat="1" ht="20.25">
-      <c r="G65" s="160"/>
+    <row r="63" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G63" s="93"/>
+    </row>
+    <row r="64" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G64" s="93"/>
+    </row>
+    <row r="65" spans="6:7" s="92" customFormat="1" ht="20.25">
+      <c r="G65" s="93"/>
     </row>
     <row r="66" spans="6:7" ht="22.5">
-      <c r="F66" s="12"/>
+      <c r="F66" s="11"/>
     </row>
     <row r="67" spans="6:7" ht="22.5">
-      <c r="F67" s="53"/>
+      <c r="F67" s="52"/>
     </row>
     <row r="68" spans="6:7" ht="22.5">
-      <c r="F68" s="53"/>
+      <c r="F68" s="52"/>
     </row>
     <row r="69" spans="6:7" ht="22.5">
-      <c r="F69" s="53"/>
+      <c r="F69" s="52"/>
     </row>
     <row r="70" spans="6:7" ht="22.5">
-      <c r="F70" s="54"/>
+      <c r="F70" s="53"/>
     </row>
     <row r="71" spans="6:7" ht="22.5">
-      <c r="F71" s="54"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="6:7" ht="22.5">
-      <c r="F72" s="55"/>
+      <c r="F72" s="54"/>
     </row>
     <row r="76" spans="6:7" ht="22.5">
-      <c r="F76" s="53"/>
+      <c r="F76" s="52"/>
     </row>
     <row r="77" spans="6:7" ht="22.5">
-      <c r="F77" s="54"/>
+      <c r="F77" s="53"/>
     </row>
     <row r="78" spans="6:7" ht="22.5">
-      <c r="F78" s="54"/>
+      <c r="F78" s="53"/>
     </row>
     <row r="79" spans="6:7" ht="22.5">
-      <c r="F79" s="55"/>
+      <c r="F79" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="34">
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C26:C28"/>
@@ -37289,8 +39936,8 @@
     <mergeCell ref="E7:E13"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="C21:C24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G52:G53"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C31:C46"/>
@@ -37305,9 +39952,6 @@
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="E43:E46"/>
     <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37337,12 +39981,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -37353,50 +39997,50 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="147"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="150" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="115"/>
+      <c r="E6" s="151"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -37404,284 +40048,284 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="166"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="166"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="166"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="166"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="153"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="167"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="111"/>
+      <c r="E15" s="147"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="115"/>
+      <c r="E17" s="151"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="112" t="s">
+      <c r="B18" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="148"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="112"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="148"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="148"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="111"/>
+      <c r="E24" s="147"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="18" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="115"/>
+      <c r="E26" s="151"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="148" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="112"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="17" t="s">
+      <c r="B28" s="148"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="17" t="s">
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="108" t="s">
+      <c r="C32" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="111"/>
+      <c r="E32" s="147"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="114" t="s">
+      <c r="D34" s="150" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="115"/>
+      <c r="E34" s="151"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="148" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="112"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="17" t="s">
+      <c r="B36" s="148"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="17" t="s">
+      <c r="B37" s="148"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="17" t="s">
+      <c r="B38" s="148"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="19" t="s">
         <v>55</v>
       </c>
     </row>
@@ -37726,7 +40370,7 @@
   </sheetPr>
   <dimension ref="A4:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -37740,91 +40384,91 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="111"/>
+      <c r="E4" s="147"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="18" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="17" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="166"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="166"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="167"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A12" s="2"/>
@@ -37866,7 +40510,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="171"/>
+      <c r="E17" s="95"/>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A18" s="2"/>
@@ -37878,14 +40522,12 @@
     <row r="19" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="164"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="164"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
@@ -37914,74 +40556,74 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="108" t="s">
+      <c r="C25" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="111"/>
+      <c r="E25" s="147"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="18" t="s">
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="114" t="s">
+      <c r="D27" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="115"/>
+      <c r="E27" s="151"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="112" t="s">
+      <c r="B28" s="148" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="17" t="s">
+      <c r="B29" s="148"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="17" t="s">
+      <c r="B30" s="148"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="112"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="17" t="s">
+      <c r="B31" s="148"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -38010,8 +40652,8 @@
   </sheetPr>
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29:Z35"/>
+    <sheetView topLeftCell="B150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB184" sqref="AB184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38021,361 +40663,361 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:26">
-      <c r="S2" s="65"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="67"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="S3" s="68"/>
-      <c r="T3" s="119" t="s">
+      <c r="S3" s="67"/>
+      <c r="T3" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="69"/>
+      <c r="U3" s="160"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="116">
+      <c r="A4" s="161">
         <v>1</v>
       </c>
-      <c r="S4" s="68"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="69"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="68"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="116"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="117" t="s">
+      <c r="A5" s="161"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="158" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="118" t="s">
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="117"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="69"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="116"/>
-      <c r="S6" s="68"/>
+      <c r="A6" s="161"/>
+      <c r="S6" s="67"/>
       <c r="V6" t="s">
         <v>80</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="Z6" s="69"/>
+      <c r="W6" s="15"/>
+      <c r="Z6" s="68"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="116"/>
-      <c r="S7" s="68"/>
-      <c r="W7" s="16"/>
+      <c r="A7" s="161"/>
+      <c r="S7" s="67"/>
+      <c r="W7" s="15"/>
       <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="Z7" s="69"/>
+      <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="116"/>
-      <c r="S8" s="68"/>
-      <c r="W8" s="16"/>
-      <c r="Z8" s="69"/>
+      <c r="A8" s="161"/>
+      <c r="S8" s="67"/>
+      <c r="W8" s="15"/>
+      <c r="Z8" s="68"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="116"/>
-      <c r="S9" s="68"/>
+      <c r="A9" s="161"/>
+      <c r="S9" s="67"/>
       <c r="V9" t="s">
         <v>82</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="Z9" s="69"/>
+      <c r="W9" s="15"/>
+      <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="116"/>
-      <c r="S10" s="68"/>
-      <c r="W10" s="16"/>
-      <c r="Z10" s="69"/>
+      <c r="A10" s="161"/>
+      <c r="S10" s="67"/>
+      <c r="W10" s="15"/>
+      <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="116"/>
-      <c r="S11" s="68"/>
-      <c r="W11" s="16"/>
-      <c r="Z11" s="69"/>
+      <c r="A11" s="161"/>
+      <c r="S11" s="67"/>
+      <c r="W11" s="15"/>
+      <c r="Z11" s="68"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="R12" s="50"/>
-      <c r="S12" s="68"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="67"/>
       <c r="V12" t="s">
         <v>86</v>
       </c>
-      <c r="W12" s="16"/>
-      <c r="Z12" s="69"/>
+      <c r="W12" s="15"/>
+      <c r="Z12" s="68"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="S13" s="68"/>
-      <c r="W13" s="16"/>
-      <c r="Z13" s="69"/>
+      <c r="S13" s="67"/>
+      <c r="W13" s="15"/>
+      <c r="Z13" s="68"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="S14" s="68"/>
-      <c r="W14" s="16"/>
-      <c r="Z14" s="69"/>
+      <c r="S14" s="67"/>
+      <c r="W14" s="15"/>
+      <c r="Z14" s="68"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="S15" s="68"/>
+      <c r="S15" s="67"/>
       <c r="V15" t="s">
         <v>141</v>
       </c>
-      <c r="W15" s="16"/>
-      <c r="Z15" s="69"/>
+      <c r="W15" s="15"/>
+      <c r="Z15" s="68"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="S16" s="68"/>
-      <c r="W16" s="16"/>
-      <c r="Z16" s="69"/>
+      <c r="S16" s="67"/>
+      <c r="W16" s="15"/>
+      <c r="Z16" s="68"/>
     </row>
     <row r="17" spans="19:26">
-      <c r="S17" s="68"/>
-      <c r="W17" s="16"/>
-      <c r="Z17" s="69"/>
+      <c r="S17" s="67"/>
+      <c r="W17" s="15"/>
+      <c r="Z17" s="68"/>
     </row>
     <row r="18" spans="19:26">
-      <c r="S18" s="68"/>
-      <c r="W18" s="16"/>
-      <c r="Z18" s="69"/>
+      <c r="S18" s="67"/>
+      <c r="W18" s="15"/>
+      <c r="Z18" s="68"/>
     </row>
     <row r="19" spans="19:26">
-      <c r="S19" s="68"/>
-      <c r="W19" s="16"/>
-      <c r="Z19" s="69"/>
+      <c r="S19" s="67"/>
+      <c r="W19" s="15"/>
+      <c r="Z19" s="68"/>
     </row>
     <row r="20" spans="19:26">
-      <c r="S20" s="68"/>
-      <c r="W20" s="16"/>
-      <c r="Z20" s="69"/>
+      <c r="S20" s="67"/>
+      <c r="W20" s="15"/>
+      <c r="Z20" s="68"/>
     </row>
     <row r="21" spans="19:26">
-      <c r="S21" s="68"/>
-      <c r="W21" s="16"/>
-      <c r="Z21" s="69"/>
+      <c r="S21" s="67"/>
+      <c r="W21" s="15"/>
+      <c r="Z21" s="68"/>
     </row>
     <row r="22" spans="19:26">
-      <c r="S22" s="68"/>
-      <c r="W22" s="16"/>
-      <c r="Z22" s="69"/>
+      <c r="S22" s="67"/>
+      <c r="W22" s="15"/>
+      <c r="Z22" s="68"/>
     </row>
     <row r="23" spans="19:26">
-      <c r="S23" s="68"/>
-      <c r="Z23" s="69"/>
+      <c r="S23" s="67"/>
+      <c r="Z23" s="68"/>
     </row>
     <row r="24" spans="19:26">
-      <c r="S24" s="68"/>
-      <c r="Z24" s="69"/>
+      <c r="S24" s="67"/>
+      <c r="Z24" s="68"/>
     </row>
     <row r="25" spans="19:26" ht="15.75" thickBot="1">
-      <c r="S25" s="70"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="72"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="116">
+      <c r="A36" s="161">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="116"/>
+      <c r="A37" s="161"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="116"/>
+      <c r="A38" s="161"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="116"/>
+      <c r="A39" s="161"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="116"/>
+      <c r="A40" s="161"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="116"/>
+      <c r="A41" s="161"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="116"/>
+      <c r="A42" s="161"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="116"/>
+      <c r="A43" s="161"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="116">
+      <c r="A68" s="161">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="116"/>
+      <c r="A69" s="161"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="116"/>
+      <c r="A70" s="161"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="116"/>
+      <c r="A71" s="161"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="116"/>
+      <c r="A72" s="161"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="116"/>
+      <c r="A73" s="161"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="116"/>
+      <c r="A74" s="161"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="116"/>
+      <c r="A75" s="161"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="116">
+      <c r="A100" s="161">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="116"/>
+      <c r="A101" s="161"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="116"/>
+      <c r="A102" s="161"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="116"/>
+      <c r="A103" s="161"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="116"/>
+      <c r="A104" s="161"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="116"/>
+      <c r="A105" s="161"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="116"/>
+      <c r="A106" s="161"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="116"/>
+      <c r="A107" s="161"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="116">
+      <c r="A132" s="161">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="116"/>
+      <c r="A133" s="161"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="116"/>
+      <c r="A134" s="161"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="116"/>
+      <c r="A135" s="161"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="116"/>
+      <c r="A136" s="161"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="116"/>
+      <c r="A137" s="161"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="116"/>
+      <c r="A138" s="161"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="116"/>
+      <c r="A139" s="161"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="116">
+      <c r="A164" s="161">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="116"/>
+      <c r="A165" s="161"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="116"/>
+      <c r="A166" s="161"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="116"/>
+      <c r="A167" s="161"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="116"/>
+      <c r="A168" s="161"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="116"/>
+      <c r="A169" s="161"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="116"/>
+      <c r="A170" s="161"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="116"/>
+      <c r="A171" s="161"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="116">
+      <c r="A196" s="161">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="116"/>
+      <c r="A197" s="161"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="116"/>
+      <c r="A198" s="161"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="116"/>
+      <c r="A199" s="161"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="116"/>
+      <c r="A200" s="161"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="116"/>
+      <c r="A201" s="161"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="116"/>
+      <c r="A202" s="161"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="116"/>
+      <c r="A203" s="161"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="116">
+      <c r="A228" s="161">
         <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="116"/>
+      <c r="A229" s="161"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="116"/>
+      <c r="A230" s="161"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="116"/>
+      <c r="A231" s="161"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="116"/>
+      <c r="A232" s="161"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="116"/>
+      <c r="A233" s="161"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="116"/>
+      <c r="A234" s="161"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="116"/>
+      <c r="A235" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -38401,10 +41043,10 @@
   <sheetPr>
     <tabColor rgb="FFB17ED8"/>
   </sheetPr>
-  <dimension ref="C50:M82"/>
+  <dimension ref="C70:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38417,254 +41059,254 @@
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
     <col min="11" max="11" width="65" customWidth="1"/>
     <col min="12" max="12" width="116.7109375" customWidth="1"/>
-    <col min="13" max="13" width="44.42578125" style="150" customWidth="1"/>
+    <col min="13" max="13" width="44.42578125" style="87" customWidth="1"/>
     <col min="14" max="21" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="50" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C50" s="136" t="s">
+    <row r="70" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C70" s="162" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="136" t="s">
+      <c r="D70" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="E50" s="136" t="s">
+      <c r="E70" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="139" t="s">
+      <c r="F70" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="136" t="s">
+      <c r="G70" s="162" t="s">
         <v>172</v>
       </c>
-      <c r="H50" s="136" t="s">
+      <c r="H70" s="162" t="s">
         <v>178</v>
       </c>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136" t="s">
+      <c r="I70" s="162"/>
+      <c r="J70" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
+      <c r="K70" s="162"/>
+      <c r="L70" s="162"/>
+      <c r="M70" s="162"/>
     </row>
-    <row r="51" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="137" t="s">
+    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C71" s="162"/>
+      <c r="D71" s="162"/>
+      <c r="E71" s="162"/>
+      <c r="F71" s="162"/>
+      <c r="G71" s="162"/>
+      <c r="H71" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="I51" s="138" t="s">
+      <c r="I71" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="J51" s="137" t="s">
+      <c r="J71" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="K51" s="137" t="s">
+      <c r="K71" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="L51" s="137" t="s">
+      <c r="L71" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="M51" s="147" t="s">
+      <c r="M71" s="84" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
-      <c r="C52" s="156" t="s">
+    <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
+      <c r="C72" s="163" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="155"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="143"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="148"/>
+      <c r="D72" s="164"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="78"/>
+      <c r="H72" s="79"/>
+      <c r="I72" s="80"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="85"/>
     </row>
-    <row r="53" spans="3:13" s="2" customFormat="1" ht="139.5">
-      <c r="C53" s="154" t="s">
+    <row r="73" spans="3:13" s="2" customFormat="1" ht="139.5">
+      <c r="C73" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="140" t="s">
+      <c r="E73" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="F53" s="141" t="s">
+      <c r="F73" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="141" t="s">
+      <c r="G73" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="H53" s="142" t="s">
+      <c r="H73" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="I53" s="143" t="s">
+      <c r="I73" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L53" s="144" t="s">
+      <c r="L73" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="M53" s="148" t="s">
+      <c r="M73" s="85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D54" s="145" t="s">
+    <row r="74" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="D74" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="141" t="s">
+      <c r="G74" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L54" s="151" t="s">
+      <c r="L74" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="M54" s="152" t="s">
+      <c r="M74" s="85" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C55" s="153" t="s">
+    <row r="75" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C75" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="M55" s="149"/>
+      <c r="M75" s="86"/>
     </row>
-    <row r="56" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D56" s="145" t="s">
+    <row r="76" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="D76" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="M56" s="149"/>
+      <c r="M76" s="86"/>
     </row>
-    <row r="57" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D57" s="145" t="s">
+    <row r="77" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="D77" s="82" t="s">
         <v>196</v>
       </c>
-      <c r="M57" s="149"/>
+      <c r="M77" s="86"/>
     </row>
-    <row r="58" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C58" s="146" t="s">
+    <row r="78" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C78" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="M58" s="149"/>
+      <c r="M78" s="86"/>
     </row>
-    <row r="59" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C59" s="146" t="s">
+    <row r="79" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C79" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="M59" s="149"/>
+      <c r="M79" s="86"/>
     </row>
-    <row r="60" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C60" s="146" t="s">
+    <row r="80" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C80" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="M60" s="149"/>
+      <c r="M80" s="86"/>
     </row>
-    <row r="61" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C61" s="146" t="s">
+    <row r="81" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C81" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="M61" s="149"/>
+      <c r="M81" s="86"/>
     </row>
-    <row r="62" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C62" s="146" t="s">
+    <row r="82" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C82" s="83" t="s">
         <v>194</v>
       </c>
-      <c r="M62" s="149"/>
+      <c r="M82" s="86"/>
     </row>
-    <row r="63" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C63" s="146" t="s">
+    <row r="83" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C83" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="M63" s="149"/>
+      <c r="M83" s="86"/>
     </row>
-    <row r="64" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M64" s="149"/>
+    <row r="84" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M84" s="86"/>
     </row>
-    <row r="65" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M65" s="149"/>
+    <row r="85" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M85" s="86"/>
     </row>
-    <row r="66" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M66" s="149"/>
+    <row r="86" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M86" s="86"/>
     </row>
-    <row r="67" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M67" s="149"/>
+    <row r="87" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M87" s="86"/>
     </row>
-    <row r="68" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M68" s="149"/>
+    <row r="88" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M88" s="86"/>
     </row>
-    <row r="69" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M69" s="149"/>
+    <row r="89" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M89" s="86"/>
     </row>
-    <row r="70" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M70" s="149"/>
+    <row r="90" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M90" s="86"/>
     </row>
-    <row r="71" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M71" s="149"/>
+    <row r="91" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M91" s="86"/>
     </row>
-    <row r="72" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M72" s="149"/>
+    <row r="92" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M92" s="86"/>
     </row>
-    <row r="73" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M73" s="149"/>
+    <row r="93" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M93" s="86"/>
     </row>
-    <row r="74" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M74" s="149"/>
+    <row r="94" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M94" s="86"/>
     </row>
-    <row r="75" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M75" s="149"/>
+    <row r="95" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M95" s="86"/>
     </row>
-    <row r="76" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M76" s="149"/>
+    <row r="96" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M96" s="86"/>
     </row>
-    <row r="77" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M77" s="149"/>
+    <row r="97" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M97" s="86"/>
     </row>
-    <row r="78" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M78" s="149"/>
+    <row r="98" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M98" s="86"/>
     </row>
-    <row r="79" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M79" s="149"/>
+    <row r="99" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M99" s="86"/>
     </row>
-    <row r="80" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M80" s="149"/>
+    <row r="100" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M100" s="86"/>
     </row>
-    <row r="81" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M81" s="149"/>
+    <row r="101" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M101" s="86"/>
     </row>
-    <row r="82" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M82" s="149"/>
+    <row r="102" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="M102" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="H70:I70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DA398C-38D8-4E14-B055-5BDDE4DACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E34C06-E911-4347-827F-1F5AE30041F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="238">
   <si>
     <t>Num</t>
   </si>
@@ -5019,9 +5019,6 @@
     <t>18/11/23</t>
   </si>
   <si>
-    <t>18-19/11/23</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5079,12 +5076,224 @@
   <si>
     <t>28/11/23</t>
   </si>
+  <si>
+    <t>18-20/11/23</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">npm install </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Univers"/>
+        <family val="2"/>
+      </rPr>
+      <t>redux-thunk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> { createStore, applyMiddleware } </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'redux'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> thunk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'redux-thunk'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> rootReducer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFD73A49"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF032F62"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'./reducers/index'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> store </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF005CC5"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>createStore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(rootReducer, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF6F42C1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>applyMiddleware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(thunk))</t>
+    </r>
+  </si>
+  <si>
+    <t>src/redux/store.js</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5477,6 +5686,36 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFD73A49"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF032F62"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF005CC5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF6F42C1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -5558,7 +5797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -6057,12 +6296,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -6339,6 +6617,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6348,13 +6650,34 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6411,9 +6734,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6425,51 +6745,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6483,16 +6758,19 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6535,6 +6813,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -38841,7 +39155,7 @@
   <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
@@ -38990,9 +39304,11 @@
         <v>143</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="46">
@@ -39005,9 +39321,11 @@
         <v>144</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="46">
@@ -39020,9 +39338,11 @@
         <v>145</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="46">
@@ -39035,9 +39355,11 @@
         <v>142</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="46">
@@ -39125,7 +39447,7 @@
         <v>161</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -39134,13 +39456,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="D23" s="46" t="s">
-        <v>228</v>
-      </c>
       <c r="E23" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -39149,13 +39471,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>163</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -39246,10 +39568,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G79"/>
+  <dimension ref="A2:G89"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52:G53"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39263,36 +39585,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="141"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="134"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39300,658 +39622,750 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B6" s="33">
+    <row r="6" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B6" s="126">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="171" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="22.5">
-      <c r="B7" s="129">
+    <row r="7" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B7" s="127"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B8" s="127"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="172" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B9" s="127"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B10" s="127"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="173"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B11" s="175"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="22.5">
+      <c r="B12" s="115">
         <v>2</v>
       </c>
-      <c r="C7" s="135" t="s">
+      <c r="C12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="103" t="s">
+      <c r="D12" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="131" t="s">
+      <c r="E12" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F12" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="22.5">
-      <c r="B8" s="130"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="20" t="s">
+    <row r="13" spans="2:6" ht="22.5">
+      <c r="B13" s="116"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="22.5">
-      <c r="B9" s="130"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="21" t="s">
+    <row r="14" spans="2:6" ht="22.5">
+      <c r="B14" s="116"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="22.5">
-      <c r="B10" s="130"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="22" t="s">
+    <row r="15" spans="2:6" ht="22.5">
+      <c r="B15" s="116"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="22.5">
-      <c r="B11" s="130"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="23" t="s">
+    <row r="16" spans="2:6" ht="22.5">
+      <c r="B16" s="116"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="130"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="23" t="s">
+    <row r="17" spans="2:6" ht="22.5">
+      <c r="B17" s="116"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="130"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="23" t="s">
+    <row r="18" spans="2:6" ht="22.5">
+      <c r="B18" s="116"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B14" s="140"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="40" t="s">
+    <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B19" s="117"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B15" s="129">
+    <row r="20" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B20" s="115">
         <v>3</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C20" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D20" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="131" t="s">
+      <c r="E20" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F20" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B16" s="130"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="25" t="s">
+    <row r="21" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B21" s="116"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B17" s="130"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="26" t="s">
+    <row r="22" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B22" s="116"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B18" s="130"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="26" t="s">
+    <row r="23" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B23" s="116"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B19" s="130"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="27" t="s">
+    <row r="24" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B24" s="116"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B20" s="140"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="40" t="s">
+    <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B25" s="117"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F25" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="22.5">
-      <c r="B21" s="129">
+    <row r="26" spans="2:6" ht="22.5">
+      <c r="B26" s="115">
         <v>4</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C26" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D26" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="131" t="s">
+      <c r="E26" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="22.5">
-      <c r="B22" s="130"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="28" t="s">
+    <row r="27" spans="2:6" ht="22.5">
+      <c r="B27" s="116"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="22.5">
-      <c r="B23" s="130"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="29" t="s">
+    <row r="28" spans="2:6" ht="22.5">
+      <c r="B28" s="116"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B24" s="120"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="12" t="s">
+    <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
+      <c r="B29" s="135"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F29" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="33">
+    <row r="30" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B30" s="33">
         <v>5</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C30" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D30" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E30" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F30" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B26" s="129">
+    <row r="31" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B31" s="115">
         <v>6</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C31" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="138" t="s">
+      <c r="D31" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="131" t="s">
+      <c r="E31" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F31" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B27" s="130"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="30" t="s">
+    <row r="32" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B32" s="116"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B28" s="140"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="39" t="s">
+    <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B33" s="117"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F33" s="44"/>
     </row>
-    <row r="29" spans="2:6" ht="45" customHeight="1" thickBot="1">
-      <c r="B29" s="33">
+    <row r="34" spans="2:6" ht="45" customHeight="1" thickBot="1">
+      <c r="B34" s="33">
         <v>7</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C34" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D34" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E34" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F34" s="43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B30" s="33">
+    <row r="35" spans="2:6" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B35" s="33">
         <v>8</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D35" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E35" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F35" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B31" s="111">
+    <row r="36" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B36" s="126">
         <v>9</v>
       </c>
-      <c r="C31" s="108" t="s">
+      <c r="C36" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D36" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="38" t="s">
+      <c r="F36" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B32" s="112"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="124" t="s">
+    <row r="37" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B37" s="127"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="121" t="s">
+      <c r="E37" s="136" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="55" t="s">
+      <c r="F37" s="55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B33" s="112"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="51" t="s">
+    <row r="38" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B38" s="127"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B34" s="112"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="51" t="s">
+    <row r="39" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B39" s="127"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B35" s="112"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="56" t="s">
+    <row r="40" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B40" s="127"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="139"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="112"/>
-      <c r="C36" s="109"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="121" t="s">
+    <row r="41" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B41" s="127"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F41" s="57" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="112"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="58" t="s">
+    <row r="42" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B42" s="127"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="112"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="112"/>
-      <c r="C39" s="109"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="112"/>
-      <c r="C40" s="109"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="112"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="75">
-      <c r="B42" s="112"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="112"/>
-      <c r="C43" s="109"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="127" t="s">
-        <v>109</v>
-      </c>
+      <c r="B43" s="127"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="139"/>
+      <c r="E43" s="137"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="112"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="127"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="137"/>
       <c r="F44" s="59" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="112"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="127"/>
+      <c r="B45" s="127"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="137"/>
       <c r="F45" s="59" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="113"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="128"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="138"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B47" s="120">
+    <row r="47" spans="2:6" ht="75">
+      <c r="B47" s="127"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="42.75" customHeight="1">
+      <c r="B48" s="127"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B49" s="127"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="139"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B50" s="127"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B51" s="128"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B52" s="135">
         <v>10</v>
       </c>
-      <c r="C47" s="117" t="s">
+      <c r="C52" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D52" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="121" t="s">
+      <c r="E52" s="136" t="s">
         <v>118</v>
       </c>
-      <c r="F47" s="62" t="s">
+      <c r="F52" s="62" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="112"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="62" t="s">
+    <row r="53" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B53" s="127"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="112"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="63" t="s">
+    <row r="54" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B54" s="127"/>
+      <c r="C54" s="133"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="112"/>
-      <c r="C50" s="118"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="62" t="s">
+    <row r="55" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B55" s="127"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B51" s="113"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="62" t="s">
+    <row r="56" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B56" s="128"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34" t="s">
+    <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B57" s="33"/>
+      <c r="C57" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="D52" s="72" t="s">
+      <c r="D57" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E57" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="F52" s="37" t="s">
+      <c r="F57" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="G52" s="102" t="s">
+      <c r="G57" s="110" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="72" t="s">
+    <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B58" s="33"/>
+      <c r="C58" s="170"/>
+      <c r="D58" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E58" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="F53" s="37" t="s">
+      <c r="F58" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="102"/>
+      <c r="G58" s="110"/>
     </row>
-    <row r="54" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="50"/>
+    <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B59" s="166"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="169"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="93"/>
     </row>
-    <row r="55" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G55" s="102"/>
-    </row>
-    <row r="56" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G56" s="102"/>
-    </row>
-    <row r="57" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G57" s="93"/>
-    </row>
-    <row r="58" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G58" s="93"/>
-    </row>
-    <row r="60" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+    <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B60" s="166"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="169"/>
+      <c r="F60" s="14"/>
       <c r="G60" s="93"/>
     </row>
-    <row r="61" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B61" s="166"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="169"/>
+      <c r="F61" s="14"/>
       <c r="G61" s="93"/>
     </row>
-    <row r="62" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B62" s="166"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="169"/>
+      <c r="F62" s="14"/>
       <c r="G62" s="93"/>
     </row>
-    <row r="63" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="63" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B63" s="166"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="169"/>
+      <c r="F63" s="14"/>
       <c r="G63" s="93"/>
     </row>
-    <row r="64" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G64" s="93"/>
+    <row r="64" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="50"/>
     </row>
-    <row r="65" spans="6:7" s="92" customFormat="1" ht="20.25">
-      <c r="G65" s="93"/>
+    <row r="65" spans="6:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G65" s="110"/>
     </row>
-    <row r="66" spans="6:7" ht="22.5">
-      <c r="F66" s="11"/>
+    <row r="66" spans="6:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G66" s="110"/>
     </row>
-    <row r="67" spans="6:7" ht="22.5">
-      <c r="F67" s="52"/>
+    <row r="67" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G67" s="93"/>
     </row>
-    <row r="68" spans="6:7" ht="22.5">
-      <c r="F68" s="52"/>
+    <row r="68" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G68" s="93"/>
     </row>
-    <row r="69" spans="6:7" ht="22.5">
-      <c r="F69" s="52"/>
+    <row r="70" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G70" s="93"/>
     </row>
-    <row r="70" spans="6:7" ht="22.5">
-      <c r="F70" s="53"/>
+    <row r="71" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G71" s="93"/>
     </row>
-    <row r="71" spans="6:7" ht="22.5">
-      <c r="F71" s="53"/>
+    <row r="72" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G72" s="93"/>
     </row>
-    <row r="72" spans="6:7" ht="22.5">
-      <c r="F72" s="54"/>
+    <row r="73" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G73" s="93"/>
+    </row>
+    <row r="74" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G74" s="93"/>
+    </row>
+    <row r="75" spans="6:7" s="92" customFormat="1" ht="20.25">
+      <c r="G75" s="93"/>
     </row>
     <row r="76" spans="6:7" ht="22.5">
-      <c r="F76" s="52"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="6:7" ht="22.5">
-      <c r="F77" s="53"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="6:7" ht="22.5">
-      <c r="F78" s="53"/>
+      <c r="F78" s="52"/>
     </row>
     <row r="79" spans="6:7" ht="22.5">
-      <c r="F79" s="54"/>
+      <c r="F79" s="52"/>
+    </row>
+    <row r="80" spans="6:7" ht="22.5">
+      <c r="F80" s="53"/>
+    </row>
+    <row r="81" spans="6:6" ht="22.5">
+      <c r="F81" s="53"/>
+    </row>
+    <row r="82" spans="6:6" ht="22.5">
+      <c r="F82" s="54"/>
+    </row>
+    <row r="86" spans="6:6" ht="22.5">
+      <c r="F86" s="52"/>
+    </row>
+    <row r="87" spans="6:6" ht="22.5">
+      <c r="F87" s="53"/>
+    </row>
+    <row r="88" spans="6:6" ht="22.5">
+      <c r="F88" s="53"/>
+    </row>
+    <row r="89" spans="6:6" ht="22.5">
+      <c r="F89" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="E21:E23"/>
+  <mergeCells count="39">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="E7:E13"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="D7:D14"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C31:C46"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="D32:D41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -39981,12 +40395,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -39997,20 +40411,20 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="147"/>
+      <c r="E4" s="146"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40025,10 +40439,10 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="147" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="151"/>
+      <c r="E6" s="148"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
       <c r="B7" s="152" t="s">
@@ -40098,20 +40512,20 @@
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="144" t="s">
+      <c r="C15" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="146"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
@@ -40126,16 +40540,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="151"/>
+      <c r="E17" s="148"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="150" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40146,8 +40560,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="148"/>
-      <c r="C19" s="149"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="150"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40156,8 +40570,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40166,8 +40580,8 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
       <c r="D21" s="16" t="s">
         <v>220</v>
       </c>
@@ -40176,20 +40590,20 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="147"/>
+      <c r="E24" s="146"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
       <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
@@ -40204,16 +40618,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="150" t="s">
+      <c r="D26" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="151"/>
+      <c r="E26" s="148"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="149" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="150" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40224,8 +40638,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40234,16 +40648,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="16" t="s">
         <v>223</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40252,20 +40666,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="144" t="s">
+      <c r="C32" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="146" t="s">
+      <c r="D32" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="147"/>
+      <c r="E32" s="146"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
       <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
@@ -40280,16 +40694,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="150" t="s">
+      <c r="D34" s="147" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="151"/>
+      <c r="E34" s="148"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="149" t="s">
+      <c r="C35" s="150" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40300,8 +40714,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="148"/>
-      <c r="C36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="150"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40310,8 +40724,8 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
       <c r="D37" s="16" t="s">
         <v>180</v>
       </c>
@@ -40320,8 +40734,8 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="148"/>
-      <c r="C38" s="149"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40331,18 +40745,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40356,6 +40758,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40370,8 +40784,8 @@
   </sheetPr>
   <dimension ref="A4:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40384,21 +40798,21 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="144" t="s">
+      <c r="C4" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="147"/>
+      <c r="E4" s="146"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40556,20 +40970,20 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="147"/>
+      <c r="E25" s="146"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
       <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
@@ -40584,16 +40998,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="150" t="s">
+      <c r="D27" s="147" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="151"/>
+      <c r="E27" s="148"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="149" t="s">
+      <c r="C28" s="150" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -40602,24 +41016,24 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="148"/>
-      <c r="C31" s="149"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
       <c r="D31" s="16" t="s">
         <v>220</v>
       </c>
@@ -40627,17 +41041,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40652,7 +41066,7 @@
   </sheetPr>
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView topLeftCell="B150" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB184" sqref="AB184"/>
     </sheetView>
   </sheetViews>

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E34C06-E911-4347-827F-1F5AE30041F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC355FA-0CE9-4C86-916B-67194A13CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
   <si>
     <t>Num</t>
   </si>
@@ -4047,21 +4047,6 @@
     <t>Perform tests for the application</t>
   </si>
   <si>
-    <t>20/11/23</t>
-  </si>
-  <si>
-    <t>21/11/23</t>
-  </si>
-  <si>
-    <t>22-23/11/23</t>
-  </si>
-  <si>
-    <t>24/11/23</t>
-  </si>
-  <si>
-    <t>25/11/23</t>
-  </si>
-  <si>
     <t>FireStore DB</t>
   </si>
   <si>
@@ -5068,12 +5053,6 @@
     <t>Improving the efficiency of the application</t>
   </si>
   <si>
-    <t>26/11/23</t>
-  </si>
-  <si>
-    <t>27/11/23</t>
-  </si>
-  <si>
     <t>28/11/23</t>
   </si>
   <si>
@@ -5287,6 +5266,45 @@
   </si>
   <si>
     <t>src/redux/store.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">npm install </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Univers"/>
+        <family val="2"/>
+      </rPr>
+      <t>@mui/x-date-pickers</t>
+    </r>
+  </si>
+  <si>
+    <t>react-material-ui-carousel</t>
+  </si>
+  <si>
+    <t>npm i moment</t>
+  </si>
+  <si>
+    <t>A JavaScript date library for parsing, validating, manipulating, and formatting dates</t>
+  </si>
+  <si>
+    <t>Add timestamp date in react</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import moment from 'moment';  </t>
+  </si>
+  <si>
+    <t>20-27/11/23</t>
+  </si>
+  <si>
+    <t>28-29/11/23</t>
+  </si>
+  <si>
+    <t>30/11/23</t>
   </si>
 </sst>
 </file>
@@ -6340,7 +6358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -6605,6 +6623,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6616,69 +6658,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6704,16 +6683,10 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6734,6 +6707,9 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6745,6 +6721,81 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6758,19 +6809,16 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6815,41 +6863,17 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18075,7 +18099,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>"40",</a:t>
+            <a:t>"Tel Aviv",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -39155,7 +39179,7 @@
   <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
@@ -39173,44 +39197,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="107" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="46">
@@ -39248,7 +39272,7 @@
       <c r="B10" s="46">
         <v>2</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="104" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -39265,7 +39289,7 @@
       <c r="B11" s="46">
         <v>3</v>
       </c>
-      <c r="C11" s="97"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="46" t="s">
         <v>70</v>
       </c>
@@ -39287,7 +39311,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>124</v>
@@ -39304,7 +39328,7 @@
         <v>143</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -39321,7 +39345,7 @@
         <v>144</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>124</v>
@@ -39338,7 +39362,7 @@
         <v>145</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>124</v>
@@ -39355,7 +39379,7 @@
         <v>142</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>124</v>
@@ -39372,9 +39396,11 @@
         <v>151</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="46">
@@ -39387,9 +39413,11 @@
         <v>152</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="46">
@@ -39402,9 +39430,11 @@
         <v>153</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>166</v>
+        <v>237</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="46">
@@ -39417,7 +39447,7 @@
         <v>154</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -39432,7 +39462,7 @@
         <v>155</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -39447,7 +39477,7 @@
         <v>161</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -39456,13 +39486,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
-      <c r="E23" s="46" t="s">
-        <v>229</v>
+      <c r="E23" s="179">
+        <v>44938</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -39471,13 +39501,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>230</v>
+      <c r="E24" s="179">
+        <v>44938</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -39519,23 +39549,23 @@
     </row>
     <row r="29" spans="2:6" ht="37.5">
       <c r="C29" s="90" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="37.5">
       <c r="C31" s="90" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="37.5">
       <c r="D33" s="91" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -39568,10 +39598,10 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G89"/>
+  <dimension ref="A2:G90"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39585,36 +39615,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="119"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="112"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39623,10 +39653,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B6" s="126">
+      <c r="B6" s="113">
         <v>1</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="110" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -39635,68 +39665,68 @@
       <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="100" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B7" s="127"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="102" t="s">
-        <v>232</v>
+      <c r="B7" s="114"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="124" t="s">
+        <v>225</v>
       </c>
-      <c r="E7" s="136" t="s">
-        <v>237</v>
+      <c r="E7" s="121" t="s">
+        <v>230</v>
       </c>
-      <c r="F7" s="172" t="s">
-        <v>233</v>
+      <c r="F7" s="101" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B8" s="127"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="172" t="s">
-        <v>234</v>
+      <c r="B8" s="114"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="101" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B9" s="127"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="172" t="s">
-        <v>235</v>
+      <c r="B9" s="114"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="101" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B10" s="127"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="173"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B11" s="175"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="174" t="s">
-        <v>236</v>
+      <c r="B11" s="132"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="103" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="115">
+      <c r="B12" s="129">
         <v>2</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="100" t="s">
+      <c r="D12" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="141" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -39704,63 +39734,63 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="116"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="107"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="142"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="22.5">
-      <c r="B14" s="116"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="107"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="142"/>
       <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="22.5">
-      <c r="B15" s="116"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="107"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="142"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5">
-      <c r="B16" s="116"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="107"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="142"/>
       <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.5">
-      <c r="B17" s="116"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="107"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="142"/>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.5">
-      <c r="B18" s="116"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="107"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B19" s="117"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="118"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
@@ -39769,16 +39799,16 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B20" s="115">
+      <c r="B20" s="129">
         <v>3</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="141" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="41" t="s">
@@ -39786,45 +39816,45 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B21" s="116"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="107"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="137"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="142"/>
       <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B22" s="116"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="107"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B23" s="116"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="107"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="137"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="142"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B24" s="116"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="107"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="137"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="142"/>
       <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="117"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="118"/>
+      <c r="B25" s="143"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
@@ -39833,16 +39863,16 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="22.5">
-      <c r="B26" s="115">
+      <c r="B26" s="129">
         <v>4</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="100" t="s">
+      <c r="D26" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="106" t="s">
+      <c r="E26" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="41" t="s">
@@ -39850,27 +39880,27 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="22.5">
-      <c r="B27" s="116"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="107"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="142"/>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="22.5">
-      <c r="B28" s="116"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="107"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="142"/>
       <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B29" s="135"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="102"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
@@ -39896,16 +39926,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B31" s="115">
+      <c r="B31" s="129">
         <v>6</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D31" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="106" t="s">
+      <c r="E31" s="141" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="41" t="s">
@@ -39913,17 +39943,17 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B32" s="116"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="107"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="142"/>
       <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B33" s="117"/>
-      <c r="C33" s="105"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
@@ -39967,10 +39997,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="113">
         <v>9</v>
       </c>
-      <c r="C36" s="123" t="s">
+      <c r="C36" s="110" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -39984,12 +40014,12 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="127"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="102" t="s">
+      <c r="B37" s="114"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="121" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="55" t="s">
@@ -39997,37 +40027,37 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="127"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="137"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="127"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="137"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="127"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="138"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="123"/>
       <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="127"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="136" t="s">
+      <c r="B41" s="114"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="121" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="57" t="s">
@@ -40035,54 +40065,54 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B42" s="127"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="137"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="127"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="137"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="127"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="137"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="127"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="137"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="127"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="138"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="123"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="75">
-      <c r="B47" s="127"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="102" t="s">
+      <c r="B47" s="114"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="124" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -40093,10 +40123,10 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="127"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="141" t="s">
+      <c r="B48" s="114"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="127" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="58" t="s">
@@ -40104,245 +40134,258 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="127"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="141"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="127"/>
       <c r="F49" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="127"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="141"/>
+      <c r="B50" s="114"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="127"/>
       <c r="F50" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="128"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="142"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="128"/>
       <c r="F51" s="60" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B52" s="135">
+    <row r="52" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" s="176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="177"/>
+    </row>
+    <row r="53" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B53" s="114">
         <v>10</v>
       </c>
-      <c r="C52" s="132" t="s">
+      <c r="C53" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="129" t="s">
+      <c r="D53" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="136" t="s">
+      <c r="E53" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F53" s="62" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B53" s="127"/>
-      <c r="C53" s="133"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="62" t="s">
+    <row r="54" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B54" s="114"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B54" s="127"/>
-      <c r="C54" s="133"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="63" t="s">
+    <row r="55" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B55" s="114"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B55" s="127"/>
-      <c r="C55" s="133"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="62" t="s">
+    <row r="56" spans="2:7" ht="42.75" customHeight="1">
+      <c r="B56" s="114"/>
+      <c r="C56" s="118"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="62" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B56" s="128"/>
-      <c r="C56" s="134"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="138"/>
-      <c r="F56" s="62" t="s">
+    <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B57" s="115"/>
+      <c r="C57" s="119"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="62" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B57" s="33"/>
-      <c r="C57" s="123" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="72" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="G57" s="110" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B58" s="33"/>
-      <c r="C58" s="170"/>
+      <c r="C58" s="110" t="s">
+        <v>206</v>
+      </c>
       <c r="D58" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G58" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="E58" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G58" s="110"/>
     </row>
     <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B59" s="166"/>
-      <c r="C59" s="167"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="169"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="93"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G59" s="152"/>
     </row>
     <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B60" s="166"/>
-      <c r="C60" s="167"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="169"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="99"/>
       <c r="F60" s="14"/>
       <c r="G60" s="93"/>
     </row>
     <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B61" s="166"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="169"/>
-      <c r="F61" s="14"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="D61" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="14" t="s">
+        <v>234</v>
+      </c>
       <c r="G61" s="93"/>
     </row>
     <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B62" s="166"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="169"/>
-      <c r="F62" s="14"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="14" t="s">
+        <v>236</v>
+      </c>
       <c r="G62" s="93"/>
     </row>
     <row r="63" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B63" s="166"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="169"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="99"/>
       <c r="F63" s="14"/>
       <c r="G63" s="93"/>
     </row>
-    <row r="64" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="50"/>
+    <row r="64" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="93"/>
     </row>
-    <row r="65" spans="6:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G65" s="110"/>
+    <row r="65" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="50"/>
     </row>
-    <row r="66" spans="6:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G66" s="110"/>
+    <row r="66" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G66" s="152"/>
     </row>
-    <row r="67" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G67" s="93"/>
+    <row r="67" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G67" s="152"/>
     </row>
-    <row r="68" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+    <row r="68" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
       <c r="G68" s="93"/>
     </row>
-    <row r="70" spans="6:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G70" s="93"/>
+    <row r="69" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G69" s="93"/>
     </row>
-    <row r="71" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="71" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
       <c r="G71" s="93"/>
     </row>
-    <row r="72" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="72" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
       <c r="G72" s="93"/>
     </row>
-    <row r="73" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="73" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
       <c r="G73" s="93"/>
     </row>
-    <row r="74" spans="6:7" s="92" customFormat="1" ht="31.5" customHeight="1">
+    <row r="74" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
       <c r="G74" s="93"/>
     </row>
-    <row r="75" spans="6:7" s="92" customFormat="1" ht="20.25">
+    <row r="75" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
       <c r="G75" s="93"/>
     </row>
-    <row r="76" spans="6:7" ht="22.5">
-      <c r="F76" s="11"/>
+    <row r="76" spans="2:7" s="92" customFormat="1" ht="20.25">
+      <c r="G76" s="93"/>
     </row>
-    <row r="77" spans="6:7" ht="22.5">
-      <c r="F77" s="52"/>
+    <row r="77" spans="2:7" ht="22.5">
+      <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="6:7" ht="22.5">
+    <row r="78" spans="2:7" ht="22.5">
       <c r="F78" s="52"/>
     </row>
-    <row r="79" spans="6:7" ht="22.5">
+    <row r="79" spans="2:7" ht="22.5">
       <c r="F79" s="52"/>
     </row>
-    <row r="80" spans="6:7" ht="22.5">
-      <c r="F80" s="53"/>
+    <row r="80" spans="2:7" ht="22.5">
+      <c r="F80" s="52"/>
     </row>
     <row r="81" spans="6:6" ht="22.5">
       <c r="F81" s="53"/>
     </row>
     <row r="82" spans="6:6" ht="22.5">
-      <c r="F82" s="54"/>
+      <c r="F82" s="53"/>
     </row>
-    <row r="86" spans="6:6" ht="22.5">
-      <c r="F86" s="52"/>
+    <row r="83" spans="6:6" ht="22.5">
+      <c r="F83" s="54"/>
     </row>
     <row r="87" spans="6:6" ht="22.5">
-      <c r="F87" s="53"/>
+      <c r="F87" s="52"/>
     </row>
     <row r="88" spans="6:6" ht="22.5">
       <c r="F88" s="53"/>
     </row>
     <row r="89" spans="6:6" ht="22.5">
-      <c r="F89" s="54"/>
+      <c r="F89" s="53"/>
+    </row>
+    <row r="90" spans="6:6" ht="22.5">
+      <c r="F90" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="D37:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D7:D11"/>
+  <mergeCells count="40">
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D32"/>
@@ -40359,13 +40402,22 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40380,7 +40432,7 @@
   <dimension ref="A2:M38"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -40395,12 +40447,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -40411,20 +40463,20 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="146"/>
+      <c r="E4" s="157"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40439,16 +40491,16 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="148"/>
+      <c r="E6" s="161"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="165" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -40458,12 +40510,12 @@
         <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="153"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="166"/>
       <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
@@ -40472,8 +40524,8 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="153"/>
-      <c r="C9" s="156"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="166"/>
       <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
@@ -40482,50 +40534,50 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="153"/>
-      <c r="C10" s="156"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="166"/>
       <c r="D10" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="153"/>
-      <c r="C11" s="156"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="166"/>
       <c r="D11" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="154"/>
-      <c r="C12" s="157"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="143" t="s">
+      <c r="C15" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="146"/>
+      <c r="E15" s="157"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="155"/>
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
@@ -40540,16 +40592,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="147" t="s">
+      <c r="D17" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="148"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="159" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40560,8 +40612,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40570,8 +40622,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="159"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40580,30 +40632,30 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="159"/>
       <c r="D21" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="145" t="s">
+      <c r="D24" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="146"/>
+      <c r="E24" s="157"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
       <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
@@ -40618,16 +40670,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="148"/>
+      <c r="E26" s="161"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="158" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="159" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40638,8 +40690,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40648,16 +40700,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
       <c r="D29" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40666,20 +40718,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="143" t="s">
+      <c r="B32" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="143" t="s">
+      <c r="C32" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="146"/>
+      <c r="E32" s="157"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="155"/>
       <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
@@ -40694,16 +40746,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="148"/>
+      <c r="E34" s="161"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="149" t="s">
+      <c r="B35" s="158" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="159" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40714,8 +40766,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="159"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40724,18 +40776,18 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="159"/>
       <c r="D37" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="159"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40745,6 +40797,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40758,18 +40822,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40785,7 +40837,7 @@
   <dimension ref="A4:E31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="A24:D24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40798,21 +40850,21 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="145" t="s">
+      <c r="D4" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="146"/>
+      <c r="E4" s="157"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40822,10 +40874,10 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="152" t="s">
+      <c r="B6" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="165" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -40837,8 +40889,8 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="156"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="166"/>
       <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
@@ -40848,8 +40900,8 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="166"/>
       <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
@@ -40859,28 +40911,28 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="156"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="166"/>
       <c r="D9" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="156"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="166"/>
       <c r="D10" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="157"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="167"/>
       <c r="D11" s="16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -40970,20 +41022,20 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="143" t="s">
+      <c r="B25" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="143" t="s">
+      <c r="C25" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="146"/>
+      <c r="E25" s="157"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
       <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
@@ -40998,16 +41050,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="148"/>
+      <c r="E27" s="161"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="159" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -41016,42 +41068,42 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="159"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="159"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="159"/>
       <c r="D31" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41066,8 +41118,8 @@
   </sheetPr>
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView topLeftCell="B60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB184" sqref="AB184"/>
+    <sheetView topLeftCell="B162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41088,46 +41140,46 @@
     </row>
     <row r="3" spans="1:26">
       <c r="S3" s="67"/>
-      <c r="T3" s="160" t="s">
+      <c r="T3" s="170" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
       <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="161">
+      <c r="A4" s="171">
         <v>1</v>
       </c>
       <c r="S4" s="67"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
       <c r="Z4" s="68"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="161"/>
+      <c r="A5" s="171"/>
       <c r="S5" s="67"/>
-      <c r="T5" s="158" t="s">
+      <c r="T5" s="168" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="159" t="s">
+      <c r="U5" s="168"/>
+      <c r="V5" s="168"/>
+      <c r="W5" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
+      <c r="X5" s="168"/>
+      <c r="Y5" s="168"/>
       <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="161"/>
+      <c r="A6" s="171"/>
       <c r="S6" s="67"/>
       <c r="V6" t="s">
         <v>80</v>
@@ -41136,7 +41188,7 @@
       <c r="Z6" s="68"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="161"/>
+      <c r="A7" s="171"/>
       <c r="S7" s="67"/>
       <c r="W7" s="15"/>
       <c r="Y7" t="s">
@@ -41145,13 +41197,13 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="161"/>
+      <c r="A8" s="171"/>
       <c r="S8" s="67"/>
       <c r="W8" s="15"/>
       <c r="Z8" s="68"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="161"/>
+      <c r="A9" s="171"/>
       <c r="S9" s="67"/>
       <c r="V9" t="s">
         <v>82</v>
@@ -41160,13 +41212,13 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="161"/>
+      <c r="A10" s="171"/>
       <c r="S10" s="67"/>
       <c r="W10" s="15"/>
       <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="161"/>
+      <c r="A11" s="171"/>
       <c r="S11" s="67"/>
       <c r="W11" s="15"/>
       <c r="Z11" s="68"/>
@@ -41252,186 +41304,186 @@
       <c r="Z25" s="71"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="161">
+      <c r="A36" s="171">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="161"/>
+      <c r="A37" s="171"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="161"/>
+      <c r="A38" s="171"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="161"/>
+      <c r="A39" s="171"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="161"/>
+      <c r="A40" s="171"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="161"/>
+      <c r="A41" s="171"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="161"/>
+      <c r="A42" s="171"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="161"/>
+      <c r="A43" s="171"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="161">
+      <c r="A68" s="171">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="161"/>
+      <c r="A69" s="171"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="161"/>
+      <c r="A70" s="171"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="161"/>
+      <c r="A71" s="171"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="161"/>
+      <c r="A72" s="171"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="161"/>
+      <c r="A73" s="171"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="161"/>
+      <c r="A74" s="171"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="161"/>
+      <c r="A75" s="171"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="161">
+      <c r="A100" s="171">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="161"/>
+      <c r="A101" s="171"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="161"/>
+      <c r="A102" s="171"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="161"/>
+      <c r="A103" s="171"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="161"/>
+      <c r="A104" s="171"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="161"/>
+      <c r="A105" s="171"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="161"/>
+      <c r="A106" s="171"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="161"/>
+      <c r="A107" s="171"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="161">
+      <c r="A132" s="171">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="161"/>
+      <c r="A133" s="171"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="161"/>
+      <c r="A134" s="171"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="161"/>
+      <c r="A135" s="171"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="161"/>
+      <c r="A136" s="171"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="161"/>
+      <c r="A137" s="171"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="161"/>
+      <c r="A138" s="171"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="161"/>
+      <c r="A139" s="171"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="161">
+      <c r="A164" s="171">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="161"/>
+      <c r="A165" s="171"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="161"/>
+      <c r="A166" s="171"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="161"/>
+      <c r="A167" s="171"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="161"/>
+      <c r="A168" s="171"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="161"/>
+      <c r="A169" s="171"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="161"/>
+      <c r="A170" s="171"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="161"/>
+      <c r="A171" s="171"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="161">
+      <c r="A196" s="171">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="161"/>
+      <c r="A197" s="171"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="161"/>
+      <c r="A198" s="171"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="161"/>
+      <c r="A199" s="171"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="161"/>
+      <c r="A200" s="171"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="161"/>
+      <c r="A201" s="171"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="161"/>
+      <c r="A202" s="171"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="161"/>
+      <c r="A203" s="171"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="161">
+      <c r="A228" s="171">
         <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="161"/>
+      <c r="A229" s="171"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="161"/>
+      <c r="A230" s="171"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="161"/>
+      <c r="A231" s="171"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="161"/>
+      <c r="A232" s="171"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="161"/>
+      <c r="A233" s="171"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="161"/>
+      <c r="A234" s="171"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="161"/>
+      <c r="A235" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41478,62 +41530,62 @@
   </cols>
   <sheetData>
     <row r="70" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C70" s="162" t="s">
-        <v>189</v>
+      <c r="C70" s="172" t="s">
+        <v>184</v>
       </c>
-      <c r="D70" s="162" t="s">
+      <c r="D70" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="172" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="175" t="s">
         <v>174</v>
       </c>
-      <c r="E70" s="162" t="s">
+      <c r="G70" s="172" t="s">
+        <v>167</v>
+      </c>
+      <c r="H70" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="F70" s="165" t="s">
-        <v>179</v>
+      <c r="I70" s="172"/>
+      <c r="J70" s="172" t="s">
+        <v>3</v>
       </c>
-      <c r="G70" s="162" t="s">
+      <c r="K70" s="172"/>
+      <c r="L70" s="172"/>
+      <c r="M70" s="172"/>
+    </row>
+    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C71" s="172"/>
+      <c r="D71" s="172"/>
+      <c r="E71" s="172"/>
+      <c r="F71" s="172"/>
+      <c r="G71" s="172"/>
+      <c r="H71" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="H70" s="162" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="162"/>
-      <c r="J70" s="162" t="s">
-        <v>3</v>
-      </c>
-      <c r="K70" s="162"/>
-      <c r="L70" s="162"/>
-      <c r="M70" s="162"/>
-    </row>
-    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C71" s="162"/>
-      <c r="D71" s="162"/>
-      <c r="E71" s="162"/>
-      <c r="F71" s="162"/>
-      <c r="G71" s="162"/>
-      <c r="H71" s="75" t="s">
-        <v>177</v>
-      </c>
       <c r="I71" s="76" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J71" s="75" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K71" s="75" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L71" s="75" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M71" s="84" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
-      <c r="C72" s="163" t="s">
-        <v>205</v>
+      <c r="C72" s="173" t="s">
+        <v>200</v>
       </c>
-      <c r="D72" s="164"/>
+      <c r="D72" s="174"/>
       <c r="E72" s="77"/>
       <c r="F72" s="78"/>
       <c r="G72" s="78"/>
@@ -41544,113 +41596,113 @@
     </row>
     <row r="73" spans="3:13" s="2" customFormat="1" ht="139.5">
       <c r="C73" s="89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F73" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="G73" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="H73" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="I73" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="78" t="s">
+      <c r="K73" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H73" s="79" t="s">
-        <v>183</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="L73" s="81" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M73" s="85" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D74" s="82" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G74" s="78" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L74" s="81" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M74" s="85" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C75" s="88" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M75" s="86"/>
     </row>
     <row r="76" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D76" s="82" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M76" s="86"/>
     </row>
     <row r="77" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D77" s="82" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M77" s="86"/>
     </row>
     <row r="78" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C78" s="83" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M78" s="86"/>
     </row>
     <row r="79" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C79" s="83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M79" s="86"/>
     </row>
     <row r="80" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C80" s="83" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M80" s="86"/>
     </row>
     <row r="81" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C81" s="83" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M81" s="86"/>
     </row>
     <row r="82" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C82" s="83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M82" s="86"/>
     </row>
     <row r="83" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C83" s="83" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M83" s="86"/>
     </row>

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC355FA-0CE9-4C86-916B-67194A13CA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC5E39-A5E3-4FC7-A302-2B95C36CF47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="240">
   <si>
     <t>Num</t>
   </si>
@@ -6647,6 +6647,15 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6659,14 +6668,95 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6695,19 +6785,7 @@
     <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6722,80 +6800,11 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6809,16 +6818,19 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6862,18 +6874,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -39179,7 +39179,7 @@
   <dimension ref="B3:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
@@ -39197,44 +39197,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="110" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="46">
@@ -39272,7 +39272,7 @@
       <c r="B10" s="46">
         <v>2</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="107" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="47" t="s">
@@ -39289,7 +39289,7 @@
       <c r="B11" s="46">
         <v>3</v>
       </c>
-      <c r="C11" s="105"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="46" t="s">
         <v>70</v>
       </c>
@@ -39449,7 +39449,9 @@
       <c r="E20" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="30">
       <c r="B21" s="46">
@@ -39464,7 +39466,9 @@
       <c r="E21" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="46">
@@ -39479,7 +39483,9 @@
       <c r="E22" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="46">
@@ -39491,7 +39497,7 @@
       <c r="D23" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="179">
+      <c r="E23" s="106">
         <v>44938</v>
       </c>
       <c r="F23" s="1"/>
@@ -39506,7 +39512,7 @@
       <c r="D24" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E24" s="179">
+      <c r="E24" s="106">
         <v>44938</v>
       </c>
       <c r="F24" s="1"/>
@@ -39615,36 +39621,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="134"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="135"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39653,10 +39659,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B6" s="113">
+      <c r="B6" s="143">
         <v>1</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="122" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -39670,12 +39676,12 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="124" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="136" t="s">
         <v>230</v>
       </c>
       <c r="F7" s="101" t="s">
@@ -39683,50 +39689,50 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B8" s="114"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="122"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="101" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B9" s="114"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="122"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="101" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B10" s="114"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="122"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="102"/>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B11" s="132"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="151"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="138"/>
       <c r="F11" s="103" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="129">
+      <c r="B12" s="130">
         <v>2</v>
       </c>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -39734,63 +39740,63 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="130"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="142"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="22.5">
-      <c r="B14" s="130"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="142"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="22.5">
-      <c r="B15" s="130"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="142"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5">
-      <c r="B16" s="130"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="142"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.5">
-      <c r="B17" s="130"/>
-      <c r="C17" s="137"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="142"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.5">
-      <c r="B18" s="130"/>
-      <c r="C18" s="137"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="142"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B19" s="143"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="146"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="133"/>
       <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
@@ -39799,16 +39805,16 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B20" s="129">
+      <c r="B20" s="130">
         <v>3</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="144" t="s">
+      <c r="D20" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="141" t="s">
+      <c r="E20" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="41" t="s">
@@ -39816,45 +39822,45 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B21" s="130"/>
-      <c r="C21" s="137"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="142"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="137"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="142"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="118"/>
       <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B23" s="130"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="142"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B24" s="130"/>
-      <c r="C24" s="137"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="142"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="143"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="146"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="133"/>
       <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
@@ -39863,16 +39869,16 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="22.5">
-      <c r="B26" s="129">
+      <c r="B26" s="130">
         <v>4</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="141" t="s">
+      <c r="E26" s="117" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="41" t="s">
@@ -39880,27 +39886,27 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="22.5">
-      <c r="B27" s="130"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="142"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="22.5">
-      <c r="B28" s="130"/>
-      <c r="C28" s="137"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="142"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B29" s="120"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="124"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
@@ -39926,16 +39932,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B31" s="129">
+      <c r="B31" s="130">
         <v>6</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="141" t="s">
+      <c r="E31" s="117" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="41" t="s">
@@ -39943,17 +39949,17 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="137"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="142"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B33" s="143"/>
-      <c r="C33" s="138"/>
+      <c r="B33" s="132"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
@@ -39997,10 +40003,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="113">
+      <c r="B36" s="143">
         <v>9</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="122" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -40014,12 +40020,12 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="114"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="124" t="s">
+      <c r="B37" s="144"/>
+      <c r="C37" s="141"/>
+      <c r="D37" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="121" t="s">
+      <c r="E37" s="136" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="55" t="s">
@@ -40027,37 +40033,37 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="114"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="122"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="141"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="137"/>
       <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="114"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="122"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="137"/>
       <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="114"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="123"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="150"/>
       <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="114"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="121" t="s">
+      <c r="B41" s="144"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="136" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="57" t="s">
@@ -40065,54 +40071,54 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B42" s="114"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="122"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="141"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="137"/>
       <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="114"/>
-      <c r="C43" s="111"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="122"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="137"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="114"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="122"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="137"/>
       <c r="F44" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="114"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="122"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="137"/>
       <c r="F45" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="114"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="123"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="150"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="75">
-      <c r="B47" s="114"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="124" t="s">
+      <c r="B47" s="144"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="113" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -40123,10 +40129,10 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="114"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="127" t="s">
+      <c r="B48" s="144"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="153" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="58" t="s">
@@ -40134,28 +40140,28 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="114"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="127"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="153"/>
       <c r="F49" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="114"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="127"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="141"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="153"/>
       <c r="F50" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="115"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="128"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="154"/>
       <c r="F51" s="60" t="s">
         <v>99</v>
       </c>
@@ -40166,22 +40172,22 @@
       <c r="D52" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="176" t="s">
+      <c r="E52" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="177"/>
+      <c r="F52" s="105"/>
     </row>
     <row r="53" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B53" s="114">
+      <c r="B53" s="144">
         <v>10</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="116" t="s">
+      <c r="D53" s="146" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="122" t="s">
+      <c r="E53" s="137" t="s">
         <v>118</v>
       </c>
       <c r="F53" s="62" t="s">
@@ -40189,44 +40195,44 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B54" s="114"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="122"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="146"/>
+      <c r="E54" s="137"/>
       <c r="F54" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B55" s="114"/>
-      <c r="C55" s="118"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="122"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="146"/>
+      <c r="E55" s="137"/>
       <c r="F55" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B56" s="114"/>
-      <c r="C56" s="118"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="122"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="137"/>
       <c r="F56" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B57" s="115"/>
-      <c r="C57" s="119"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="123"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="149"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="150"/>
       <c r="F57" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B58" s="33"/>
-      <c r="C58" s="110" t="s">
+      <c r="C58" s="122" t="s">
         <v>206</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -40238,13 +40244,13 @@
       <c r="F58" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="152" t="s">
+      <c r="G58" s="121" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B59" s="33"/>
-      <c r="C59" s="131"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="72" t="s">
         <v>208</v>
       </c>
@@ -40254,7 +40260,7 @@
       <c r="F59" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="152"/>
+      <c r="G59" s="121"/>
     </row>
     <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B60" s="96"/>
@@ -40271,7 +40277,7 @@
       <c r="C61" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="D61" s="178" t="s">
+      <c r="D61" s="124" t="s">
         <v>233</v>
       </c>
       <c r="E61" s="99"/>
@@ -40283,7 +40289,7 @@
     <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B62" s="96"/>
       <c r="C62" s="97"/>
-      <c r="D62" s="133"/>
+      <c r="D62" s="125"/>
       <c r="E62" s="99"/>
       <c r="F62" s="14" t="s">
         <v>236</v>
@@ -40293,7 +40299,7 @@
     <row r="63" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B63" s="96"/>
       <c r="C63" s="97"/>
-      <c r="D63" s="176"/>
+      <c r="D63" s="104"/>
       <c r="E63" s="99"/>
       <c r="F63" s="14"/>
       <c r="G63" s="93"/>
@@ -40301,7 +40307,7 @@
     <row r="64" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B64" s="96"/>
       <c r="C64" s="97"/>
-      <c r="D64" s="176"/>
+      <c r="D64" s="104"/>
       <c r="E64" s="99"/>
       <c r="F64" s="14"/>
       <c r="G64" s="93"/>
@@ -40314,10 +40320,10 @@
       <c r="F65" s="50"/>
     </row>
     <row r="66" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G66" s="152"/>
+      <c r="G66" s="121"/>
     </row>
     <row r="67" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G67" s="152"/>
+      <c r="G67" s="121"/>
     </row>
     <row r="68" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
       <c r="G68" s="93"/>
@@ -40378,14 +40384,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D7:D11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D32"/>
@@ -40402,22 +40416,14 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="E7:E11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="D37:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40431,8 +40437,8 @@
   </sheetPr>
   <dimension ref="A2:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -40447,12 +40453,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -40463,20 +40469,20 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="157"/>
+      <c r="E4" s="160"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40491,16 +40497,16 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="161"/>
+      <c r="E6" s="162"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="169" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -40514,8 +40520,8 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="163"/>
-      <c r="C8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="170"/>
       <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
@@ -40524,8 +40530,8 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="163"/>
-      <c r="C9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
@@ -40534,8 +40540,8 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="163"/>
-      <c r="C10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="16" t="s">
         <v>214</v>
       </c>
@@ -40544,8 +40550,8 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="163"/>
-      <c r="C11" s="166"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="170"/>
       <c r="D11" s="16" t="s">
         <v>215</v>
       </c>
@@ -40554,8 +40560,8 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="164"/>
-      <c r="C12" s="167"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="171"/>
       <c r="D12" s="16" t="s">
         <v>217</v>
       </c>
@@ -40564,20 +40570,20 @@
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="154" t="s">
+      <c r="B15" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="154" t="s">
+      <c r="C15" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="156" t="s">
+      <c r="D15" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="157"/>
+      <c r="E15" s="160"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
@@ -40592,16 +40598,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="162"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="158" t="s">
+      <c r="B18" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="159" t="s">
+      <c r="C18" s="164" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40612,8 +40618,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="158"/>
-      <c r="C19" s="159"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40622,8 +40628,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="158"/>
-      <c r="C20" s="159"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40632,8 +40638,8 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="158"/>
-      <c r="C21" s="159"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="16" t="s">
         <v>215</v>
       </c>
@@ -40642,20 +40648,20 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="154" t="s">
+      <c r="B24" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="154" t="s">
+      <c r="C24" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="157"/>
+      <c r="E24" s="160"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
@@ -40670,16 +40676,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="161" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="161"/>
+      <c r="E26" s="162"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="159" t="s">
+      <c r="C27" s="164" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40690,8 +40696,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="158"/>
-      <c r="C28" s="159"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40700,16 +40706,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="158"/>
-      <c r="C29" s="159"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="16" t="s">
         <v>218</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="158"/>
-      <c r="C30" s="159"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40718,20 +40724,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="157"/>
+      <c r="E32" s="160"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
@@ -40746,16 +40752,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="161" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="161"/>
+      <c r="E34" s="162"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="158" t="s">
+      <c r="B35" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="159" t="s">
+      <c r="C35" s="164" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40766,8 +40772,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="158"/>
-      <c r="C36" s="159"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40776,8 +40782,8 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="158"/>
-      <c r="C37" s="159"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="164"/>
       <c r="D37" s="16" t="s">
         <v>175</v>
       </c>
@@ -40786,8 +40792,8 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="158"/>
-      <c r="C38" s="159"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="164"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40797,18 +40803,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40822,6 +40816,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40850,21 +40856,21 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="156" t="s">
+      <c r="D4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="157"/>
+      <c r="E4" s="160"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40874,10 +40880,10 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="169" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -40889,8 +40895,8 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="166"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="170"/>
       <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
@@ -40900,8 +40906,8 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="170"/>
       <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
@@ -40911,8 +40917,8 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="166"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="170"/>
       <c r="D9" s="16" t="s">
         <v>214</v>
       </c>
@@ -40920,8 +40926,8 @@
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="166"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="170"/>
       <c r="D10" s="16" t="s">
         <v>215</v>
       </c>
@@ -40929,8 +40935,8 @@
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="164"/>
-      <c r="C11" s="167"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="171"/>
       <c r="D11" s="16" t="s">
         <v>217</v>
       </c>
@@ -41022,20 +41028,20 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="154" t="s">
+      <c r="C25" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="156" t="s">
+      <c r="D25" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="157"/>
+      <c r="E25" s="160"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
@@ -41050,16 +41056,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="161"/>
+      <c r="E27" s="162"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="163" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="164" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -41068,24 +41074,24 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="158"/>
-      <c r="C29" s="159"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="164"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="158"/>
-      <c r="C30" s="159"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="158"/>
-      <c r="C31" s="159"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="16" t="s">
         <v>215</v>
       </c>
@@ -41093,17 +41099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41118,8 +41124,8 @@
   </sheetPr>
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView topLeftCell="B162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="B144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R233" sqref="R233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -41140,46 +41146,46 @@
     </row>
     <row r="3" spans="1:26">
       <c r="S3" s="67"/>
-      <c r="T3" s="170" t="s">
+      <c r="T3" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
       <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="171">
+      <c r="A4" s="175">
         <v>1</v>
       </c>
       <c r="S4" s="67"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
       <c r="Z4" s="68"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="171"/>
+      <c r="A5" s="175"/>
       <c r="S5" s="67"/>
-      <c r="T5" s="168" t="s">
+      <c r="T5" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="169" t="s">
+      <c r="U5" s="172"/>
+      <c r="V5" s="172"/>
+      <c r="W5" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
+      <c r="X5" s="172"/>
+      <c r="Y5" s="172"/>
       <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="171"/>
+      <c r="A6" s="175"/>
       <c r="S6" s="67"/>
       <c r="V6" t="s">
         <v>80</v>
@@ -41188,7 +41194,7 @@
       <c r="Z6" s="68"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="171"/>
+      <c r="A7" s="175"/>
       <c r="S7" s="67"/>
       <c r="W7" s="15"/>
       <c r="Y7" t="s">
@@ -41197,13 +41203,13 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="171"/>
+      <c r="A8" s="175"/>
       <c r="S8" s="67"/>
       <c r="W8" s="15"/>
       <c r="Z8" s="68"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="171"/>
+      <c r="A9" s="175"/>
       <c r="S9" s="67"/>
       <c r="V9" t="s">
         <v>82</v>
@@ -41212,13 +41218,13 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="171"/>
+      <c r="A10" s="175"/>
       <c r="S10" s="67"/>
       <c r="W10" s="15"/>
       <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="171"/>
+      <c r="A11" s="175"/>
       <c r="S11" s="67"/>
       <c r="W11" s="15"/>
       <c r="Z11" s="68"/>
@@ -41304,186 +41310,186 @@
       <c r="Z25" s="71"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="171">
+      <c r="A36" s="175">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="171"/>
+      <c r="A37" s="175"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="171"/>
+      <c r="A38" s="175"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="171"/>
+      <c r="A39" s="175"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="171"/>
+      <c r="A40" s="175"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="171"/>
+      <c r="A41" s="175"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="171"/>
+      <c r="A42" s="175"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="171"/>
+      <c r="A43" s="175"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="171">
+      <c r="A68" s="175">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="171"/>
+      <c r="A69" s="175"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="171"/>
+      <c r="A70" s="175"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="171"/>
+      <c r="A71" s="175"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="171"/>
+      <c r="A72" s="175"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="171"/>
+      <c r="A73" s="175"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="171"/>
+      <c r="A74" s="175"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="171"/>
+      <c r="A75" s="175"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="171">
+      <c r="A100" s="175">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="171"/>
+      <c r="A101" s="175"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="171"/>
+      <c r="A102" s="175"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="171"/>
+      <c r="A103" s="175"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="171"/>
+      <c r="A104" s="175"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="171"/>
+      <c r="A105" s="175"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="171"/>
+      <c r="A106" s="175"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="171"/>
+      <c r="A107" s="175"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="171">
+      <c r="A132" s="175">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="171"/>
+      <c r="A133" s="175"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="171"/>
+      <c r="A134" s="175"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="171"/>
+      <c r="A135" s="175"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="171"/>
+      <c r="A136" s="175"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="171"/>
+      <c r="A137" s="175"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="171"/>
+      <c r="A138" s="175"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="171"/>
+      <c r="A139" s="175"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="171">
+      <c r="A164" s="175">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="171"/>
+      <c r="A165" s="175"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="171"/>
+      <c r="A166" s="175"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="171"/>
+      <c r="A167" s="175"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="171"/>
+      <c r="A168" s="175"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="171"/>
+      <c r="A169" s="175"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="171"/>
+      <c r="A170" s="175"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="171"/>
+      <c r="A171" s="175"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="171">
+      <c r="A196" s="175">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="171"/>
+      <c r="A197" s="175"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="171"/>
+      <c r="A198" s="175"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="171"/>
+      <c r="A199" s="175"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="171"/>
+      <c r="A200" s="175"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="171"/>
+      <c r="A201" s="175"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="171"/>
+      <c r="A202" s="175"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="171"/>
+      <c r="A203" s="175"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="171">
+      <c r="A228" s="175">
         <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="171"/>
+      <c r="A229" s="175"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="171"/>
+      <c r="A230" s="175"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="171"/>
+      <c r="A231" s="175"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="171"/>
+      <c r="A232" s="175"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="171"/>
+      <c r="A233" s="175"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="171"/>
+      <c r="A234" s="175"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="171"/>
+      <c r="A235" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41530,38 +41536,38 @@
   </cols>
   <sheetData>
     <row r="70" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C70" s="172" t="s">
+      <c r="C70" s="176" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="172" t="s">
+      <c r="D70" s="176" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="172" t="s">
+      <c r="E70" s="176" t="s">
         <v>168</v>
       </c>
-      <c r="F70" s="175" t="s">
+      <c r="F70" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="G70" s="172" t="s">
+      <c r="G70" s="176" t="s">
         <v>167</v>
       </c>
-      <c r="H70" s="172" t="s">
+      <c r="H70" s="176" t="s">
         <v>173</v>
       </c>
-      <c r="I70" s="172"/>
-      <c r="J70" s="172" t="s">
+      <c r="I70" s="176"/>
+      <c r="J70" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="K70" s="172"/>
-      <c r="L70" s="172"/>
-      <c r="M70" s="172"/>
+      <c r="K70" s="176"/>
+      <c r="L70" s="176"/>
+      <c r="M70" s="176"/>
     </row>
     <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C71" s="172"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="172"/>
-      <c r="F71" s="172"/>
-      <c r="G71" s="172"/>
+      <c r="C71" s="176"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="176"/>
+      <c r="G71" s="176"/>
       <c r="H71" s="75" t="s">
         <v>172</v>
       </c>
@@ -41582,10 +41588,10 @@
       </c>
     </row>
     <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
-      <c r="C72" s="173" t="s">
+      <c r="C72" s="177" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="174"/>
+      <c r="D72" s="178"/>
       <c r="E72" s="77"/>
       <c r="F72" s="78"/>
       <c r="G72" s="78"/>

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC5E39-A5E3-4FC7-A302-2B95C36CF47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88373DD-A9E9-4689-A63A-1C157CB89B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Work" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Actions" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Work'!$A$7:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Work'!$A$5:$F$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="247">
   <si>
     <t>Num</t>
   </si>
@@ -4021,29 +4021,6 @@
     <t>authenticate the app with firebase authetication</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Users collection</t>
-    </r>
-  </si>
-  <si>
     <t>Perform tests for the application</t>
   </si>
   <si>
@@ -5004,52 +4981,6 @@
     <t>18/11/23</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Tests</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - optimization</t>
-    </r>
-  </si>
-  <si>
     <t>Improving the efficiency of the application</t>
   </si>
   <si>
@@ -5304,14 +5235,154 @@
     <t>28-29/11/23</t>
   </si>
   <si>
-    <t>30/11/23</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - improve and sync store data</t>
+    </r>
+  </si>
+  <si>
+    <t>Improve and Sync between the external DB [Firebase] and the internal DB [redux]</t>
+  </si>
+  <si>
+    <t>29/11/23-5/12/23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Users collection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - optimization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Tests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Build dashboard page - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionally</t>
+    </r>
+  </si>
+  <si>
+    <t>I will add a dashboard page that gives the possibility to manage the necessary data</t>
+  </si>
+  <si>
+    <t>5-7/12/2023</t>
+  </si>
+  <si>
+    <t>8-9/12/2023</t>
+  </si>
+  <si>
+    <t>10-11/12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64">
+  <fonts count="65">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5733,6 +5804,13 @@
       <color rgb="FF6F42C1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -6358,7 +6436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -6559,9 +6637,6 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6607,9 +6682,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6668,95 +6740,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6785,7 +6776,16 @@
     <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6800,11 +6800,86 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6818,19 +6893,16 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6873,6 +6945,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -39176,19 +39251,19 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B3:F33"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="45" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" style="45" customWidth="1"/>
     <col min="4" max="4" width="61.85546875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21" style="45" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="45" customWidth="1"/>
     <col min="7" max="7" width="36.140625" style="45" customWidth="1"/>
     <col min="8" max="8" width="15" style="45"/>
@@ -39196,56 +39271,90 @@
     <col min="10" max="16384" width="15" style="45"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="109" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="107" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="110" t="s">
+      <c r="B4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C4" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D4" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E4" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F4" s="108" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="46">
+        <v>1</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="B7" s="46">
+        <v>1</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>74</v>
+      <c r="C8" s="105" t="s">
+        <v>68</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="E8" s="46" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>124</v>
@@ -39253,33 +39362,31 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="46">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>72</v>
-      </c>
+      <c r="C9" s="106"/>
       <c r="D9" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="48" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>68</v>
+      <c r="C10" s="46" t="s">
+        <v>76</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>71</v>
+      <c r="D10" s="46" t="s">
+        <v>146</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>124</v>
@@ -39287,31 +39394,33 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
-      <c r="C11" s="108"/>
+      <c r="C11" s="46" t="s">
+        <v>147</v>
+      </c>
       <c r="D11" s="46" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>124</v>
@@ -39319,16 +39428,16 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -39336,16 +39445,16 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>124</v>
@@ -39353,16 +39462,16 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>124</v>
@@ -39370,16 +39479,16 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>124</v>
@@ -39387,16 +39496,16 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>124</v>
@@ -39404,194 +39513,154 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" ht="30">
       <c r="B19" s="46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" ht="30">
       <c r="B20" s="46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30">
+    <row r="21" spans="2:6">
       <c r="B21" s="46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
-      <c r="E21" s="46" t="s">
-        <v>238</v>
+      <c r="E21" s="104" t="s">
+        <v>244</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
-      <c r="D22" s="74" t="s">
-        <v>161</v>
+      <c r="D22" s="46" t="s">
+        <v>219</v>
       </c>
-      <c r="E22" s="46" t="s">
-        <v>239</v>
+      <c r="E22" s="104" t="s">
+        <v>245</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" ht="30">
       <c r="B23" s="46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
-      <c r="E23" s="106">
-        <v>44938</v>
+      <c r="E23" s="104" t="s">
+        <v>246</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
-      <c r="E24" s="106">
-        <v>44938</v>
+      <c r="E24" s="104">
+        <v>45272</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="46">
-        <v>17</v>
+    <row r="25" spans="2:6" ht="37.5">
+      <c r="C25" s="89" t="s">
+        <v>200</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="178" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="46">
-        <v>18</v>
+    <row r="27" spans="2:6" ht="37.5">
+      <c r="C27" s="89" t="s">
+        <v>202</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="46">
-        <v>19</v>
+      <c r="D27" s="178" t="s">
+        <v>203</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="46">
-        <v>20</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" ht="37.5">
-      <c r="C29" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="91" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="37.5">
-      <c r="C31" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="91" t="s">
+      <c r="D29" s="178" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="37.5">
-      <c r="D33" s="91" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F8:F28">
+  <conditionalFormatting sqref="F6:F24">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="V">
-      <formula>NOT(ISERROR(SEARCH("V",F8)))</formula>
+      <formula>NOT(ISERROR(SEARCH("V",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C29" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
-    <hyperlink ref="C31" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -39617,40 +39686,40 @@
     <col min="3" max="3" width="25.85546875" style="6" customWidth="1"/>
     <col min="4" max="5" width="46.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="178.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="67.85546875" style="94" customWidth="1"/>
+    <col min="7" max="7" width="67.85546875" style="92" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="134"/>
+      <c r="F4" s="149"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="127"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39659,10 +39728,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B6" s="143">
+      <c r="B6" s="114">
         <v>1</v>
       </c>
-      <c r="C6" s="122" t="s">
+      <c r="C6" s="111" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -39671,68 +39740,68 @@
       <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="98" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B7" s="144"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="113" t="s">
+      <c r="B7" s="115"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B8" s="115"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="99" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B9" s="115"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="136" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="101" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B10" s="115"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="100"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B11" s="133"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="101" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B8" s="144"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="101" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B9" s="144"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="101" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B10" s="144"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="102"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B11" s="156"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="103" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="130">
+      <c r="B12" s="129">
         <v>2</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="142" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -39740,63 +39809,63 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="131"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="118"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="143"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="22.5">
-      <c r="B14" s="131"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="118"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="22.5">
-      <c r="B15" s="131"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="118"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5">
-      <c r="B16" s="131"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="118"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="143"/>
       <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.5">
-      <c r="B17" s="131"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="118"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="143"/>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.5">
-      <c r="B18" s="131"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="118"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="143"/>
       <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B19" s="132"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="133"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
@@ -39805,16 +39874,16 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B20" s="130">
+      <c r="B20" s="129">
         <v>3</v>
       </c>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="111" t="s">
+      <c r="D20" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="142" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="41" t="s">
@@ -39822,45 +39891,45 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B21" s="131"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="118"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B22" s="131"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="118"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="143"/>
       <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B23" s="131"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="118"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B24" s="131"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="118"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="143"/>
       <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="132"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="133"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
@@ -39869,16 +39938,16 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="22.5">
-      <c r="B26" s="130">
+      <c r="B26" s="129">
         <v>4</v>
       </c>
-      <c r="C26" s="114" t="s">
+      <c r="C26" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="142" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="41" t="s">
@@ -39886,27 +39955,27 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="22.5">
-      <c r="B27" s="131"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="118"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="143"/>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="22.5">
-      <c r="B28" s="131"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="118"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="143"/>
       <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B29" s="155"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="113"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
@@ -39932,16 +40001,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B31" s="130">
+      <c r="B31" s="129">
         <v>6</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="117" t="s">
+      <c r="E31" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="41" t="s">
@@ -39949,17 +40018,17 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B32" s="131"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="118"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B33" s="132"/>
-      <c r="C33" s="116"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="139"/>
       <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
@@ -40003,10 +40072,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="143">
+      <c r="B36" s="114">
         <v>9</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="111" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -40020,12 +40089,12 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="144"/>
-      <c r="C37" s="141"/>
-      <c r="D37" s="113" t="s">
+      <c r="B37" s="115"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="136" t="s">
+      <c r="E37" s="123" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="55" t="s">
@@ -40033,37 +40102,37 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="144"/>
-      <c r="C38" s="141"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="137"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="144"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="137"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="121"/>
       <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="144"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="150"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="122"/>
       <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="144"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="136" t="s">
+      <c r="B41" s="115"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="123" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="57" t="s">
@@ -40071,54 +40140,54 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B42" s="144"/>
-      <c r="C42" s="141"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="137"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="121"/>
       <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="144"/>
-      <c r="C43" s="141"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="137"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="121"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="144"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="137"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="121"/>
       <c r="F44" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="144"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="137"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="121"/>
       <c r="F45" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="144"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="150"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="126"/>
+      <c r="E46" s="122"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="75">
-      <c r="B47" s="144"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="113" t="s">
+      <c r="B47" s="115"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="124" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -40129,10 +40198,10 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="144"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="153" t="s">
+      <c r="B48" s="115"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="127" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="58" t="s">
@@ -40140,54 +40209,54 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="144"/>
-      <c r="C49" s="141"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="153"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="127"/>
       <c r="F49" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="144"/>
-      <c r="C50" s="141"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="153"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="127"/>
       <c r="F50" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="145"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="154"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="128"/>
       <c r="F51" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="98" t="s">
-        <v>231</v>
+      <c r="B52" s="94"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96" t="s">
+        <v>228</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="105"/>
+      <c r="F52" s="103"/>
     </row>
     <row r="53" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B53" s="144">
+      <c r="B53" s="115">
         <v>10</v>
       </c>
-      <c r="C53" s="148" t="s">
+      <c r="C53" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="146" t="s">
+      <c r="D53" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="137" t="s">
+      <c r="E53" s="121" t="s">
         <v>118</v>
       </c>
       <c r="F53" s="62" t="s">
@@ -40195,122 +40264,122 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B54" s="144"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="137"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="121"/>
       <c r="F54" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B55" s="144"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="137"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="121"/>
       <c r="F55" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B56" s="144"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="137"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="121"/>
       <c r="F56" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B57" s="145"/>
-      <c r="C57" s="149"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="150"/>
+      <c r="B57" s="116"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="118"/>
+      <c r="E57" s="122"/>
       <c r="F57" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B58" s="33"/>
-      <c r="C58" s="122" t="s">
+      <c r="C58" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="72" t="s">
-        <v>207</v>
-      </c>
       <c r="E58" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
-      <c r="G58" s="121" t="s">
-        <v>213</v>
+      <c r="G58" s="153" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B59" s="33"/>
-      <c r="C59" s="123"/>
+      <c r="C59" s="132"/>
       <c r="D59" s="72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="F59" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" s="121"/>
+      <c r="G59" s="153"/>
     </row>
     <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="98" t="s">
+      <c r="B60" s="94"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="97"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="91"/>
+    </row>
+    <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B61" s="94"/>
+      <c r="C61" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="E60" s="99"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="93"/>
+      <c r="D61" s="154" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="97"/>
+      <c r="F61" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" s="91"/>
     </row>
-    <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B61" s="96"/>
-      <c r="C61" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="D61" s="124" t="s">
+    <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="E61" s="99"/>
-      <c r="F61" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="G61" s="93"/>
-    </row>
-    <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="G62" s="93"/>
+      <c r="G62" s="91"/>
     </row>
     <row r="63" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="99"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="14"/>
-      <c r="G63" s="93"/>
+      <c r="G63" s="91"/>
     </row>
     <row r="64" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="99"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="93"/>
+      <c r="G64" s="91"/>
     </row>
     <row r="65" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
       <c r="B65" s="8"/>
@@ -40319,35 +40388,35 @@
       <c r="E65" s="9"/>
       <c r="F65" s="50"/>
     </row>
-    <row r="66" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G66" s="121"/>
+    <row r="66" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G66" s="153"/>
     </row>
-    <row r="67" spans="2:7" s="92" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G67" s="121"/>
+    <row r="67" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
+      <c r="G67" s="153"/>
     </row>
-    <row r="68" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G68" s="93"/>
+    <row r="68" spans="2:7" s="90" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G68" s="91"/>
     </row>
-    <row r="69" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G69" s="93"/>
+    <row r="69" spans="2:7" s="90" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G69" s="91"/>
     </row>
-    <row r="71" spans="2:7" s="92" customFormat="1" ht="43.5" customHeight="1">
-      <c r="G71" s="93"/>
+    <row r="71" spans="2:7" s="90" customFormat="1" ht="43.5" customHeight="1">
+      <c r="G71" s="91"/>
     </row>
-    <row r="72" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G72" s="93"/>
+    <row r="72" spans="2:7" s="90" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G72" s="91"/>
     </row>
-    <row r="73" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G73" s="93"/>
+    <row r="73" spans="2:7" s="90" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G73" s="91"/>
     </row>
-    <row r="74" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G74" s="93"/>
+    <row r="74" spans="2:7" s="90" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G74" s="91"/>
     </row>
-    <row r="75" spans="2:7" s="92" customFormat="1" ht="31.5" customHeight="1">
-      <c r="G75" s="93"/>
+    <row r="75" spans="2:7" s="90" customFormat="1" ht="31.5" customHeight="1">
+      <c r="G75" s="91"/>
     </row>
-    <row r="76" spans="2:7" s="92" customFormat="1" ht="20.25">
-      <c r="G76" s="93"/>
+    <row r="76" spans="2:7" s="90" customFormat="1" ht="20.25">
+      <c r="G76" s="91"/>
     </row>
     <row r="77" spans="2:7" ht="22.5">
       <c r="F77" s="11"/>
@@ -40384,6 +40453,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E7:E11"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C36:C51"/>
     <mergeCell ref="B36:B51"/>
@@ -40400,30 +40493,6 @@
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40453,12 +40522,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -40469,20 +40538,20 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="160"/>
+      <c r="E4" s="159"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40497,16 +40566,16 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="162"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="167" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -40516,12 +40585,12 @@
         <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="167"/>
-      <c r="C8" s="170"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
@@ -40530,8 +40599,8 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="167"/>
-      <c r="C9" s="170"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
@@ -40540,50 +40609,50 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="167"/>
-      <c r="C10" s="170"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="167"/>
-      <c r="C11" s="170"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="168"/>
-      <c r="C12" s="171"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="157" t="s">
+      <c r="B15" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="157" t="s">
+      <c r="C15" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="159" t="s">
+      <c r="D15" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="160"/>
+      <c r="E15" s="159"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="158"/>
-      <c r="C16" s="158"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
@@ -40598,16 +40667,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="161" t="s">
+      <c r="D17" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="162"/>
+      <c r="E17" s="163"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="161" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40618,8 +40687,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="163"/>
-      <c r="C19" s="164"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="161"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40628,8 +40697,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="163"/>
-      <c r="C20" s="164"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40638,30 +40707,30 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="163"/>
-      <c r="C21" s="164"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="157" t="s">
+      <c r="C24" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="160"/>
+      <c r="E24" s="159"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
@@ -40676,16 +40745,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="161" t="s">
+      <c r="D26" s="162" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="162"/>
+      <c r="E26" s="163"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="164" t="s">
+      <c r="C27" s="161" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40696,8 +40765,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="163"/>
-      <c r="C28" s="164"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="161"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40706,16 +40775,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40724,20 +40793,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="157" t="s">
+      <c r="C32" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="159" t="s">
+      <c r="D32" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="160"/>
+      <c r="E32" s="159"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
@@ -40752,16 +40821,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="161" t="s">
+      <c r="D34" s="162" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="162"/>
+      <c r="E34" s="163"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="161" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40772,8 +40841,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="163"/>
-      <c r="C36" s="164"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="161"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40782,18 +40851,18 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="163"/>
-      <c r="C37" s="164"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="163"/>
-      <c r="C38" s="164"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40803,6 +40872,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40816,18 +40897,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40856,21 +40925,21 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="157" t="s">
+      <c r="C4" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="160"/>
+      <c r="E4" s="159"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="157"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40880,10 +40949,10 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="167" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -40895,8 +40964,8 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="170"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
@@ -40906,8 +40975,8 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="170"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
@@ -40917,28 +40986,28 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="170"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="170"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="171"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -40982,7 +41051,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="95"/>
+      <c r="E17" s="93"/>
     </row>
     <row r="18" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A18" s="2"/>
@@ -41028,20 +41097,20 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="158" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="160"/>
+      <c r="E25" s="159"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
@@ -41056,16 +41125,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="161" t="s">
+      <c r="D27" s="162" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="162"/>
+      <c r="E27" s="163"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="164" t="s">
+      <c r="C28" s="161" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -41074,42 +41143,42 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="163"/>
-      <c r="C29" s="164"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="163"/>
-      <c r="C30" s="164"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="163"/>
-      <c r="C31" s="164"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41146,46 +41215,46 @@
     </row>
     <row r="3" spans="1:26">
       <c r="S3" s="67"/>
-      <c r="T3" s="174" t="s">
+      <c r="T3" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
       <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="175">
+      <c r="A4" s="173">
         <v>1</v>
       </c>
       <c r="S4" s="67"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
       <c r="Z4" s="68"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="175"/>
+      <c r="A5" s="173"/>
       <c r="S5" s="67"/>
-      <c r="T5" s="172" t="s">
+      <c r="T5" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="173" t="s">
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="170"/>
       <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="175"/>
+      <c r="A6" s="173"/>
       <c r="S6" s="67"/>
       <c r="V6" t="s">
         <v>80</v>
@@ -41194,7 +41263,7 @@
       <c r="Z6" s="68"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="175"/>
+      <c r="A7" s="173"/>
       <c r="S7" s="67"/>
       <c r="W7" s="15"/>
       <c r="Y7" t="s">
@@ -41203,13 +41272,13 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="175"/>
+      <c r="A8" s="173"/>
       <c r="S8" s="67"/>
       <c r="W8" s="15"/>
       <c r="Z8" s="68"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="175"/>
+      <c r="A9" s="173"/>
       <c r="S9" s="67"/>
       <c r="V9" t="s">
         <v>82</v>
@@ -41218,13 +41287,13 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="175"/>
+      <c r="A10" s="173"/>
       <c r="S10" s="67"/>
       <c r="W10" s="15"/>
       <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="175"/>
+      <c r="A11" s="173"/>
       <c r="S11" s="67"/>
       <c r="W11" s="15"/>
       <c r="Z11" s="68"/>
@@ -41310,186 +41379,186 @@
       <c r="Z25" s="71"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="175">
+      <c r="A36" s="173">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="175"/>
+      <c r="A37" s="173"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="175"/>
+      <c r="A38" s="173"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="175"/>
+      <c r="A39" s="173"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="175"/>
+      <c r="A40" s="173"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="175"/>
+      <c r="A41" s="173"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="175"/>
+      <c r="A42" s="173"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="175"/>
+      <c r="A43" s="173"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="175">
+      <c r="A68" s="173">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="175"/>
+      <c r="A69" s="173"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="175"/>
+      <c r="A70" s="173"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="175"/>
+      <c r="A71" s="173"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="175"/>
+      <c r="A72" s="173"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="175"/>
+      <c r="A73" s="173"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="175"/>
+      <c r="A74" s="173"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="175"/>
+      <c r="A75" s="173"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="175">
+      <c r="A100" s="173">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="175"/>
+      <c r="A101" s="173"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="175"/>
+      <c r="A102" s="173"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="175"/>
+      <c r="A103" s="173"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="175"/>
+      <c r="A104" s="173"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="175"/>
+      <c r="A105" s="173"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="175"/>
+      <c r="A106" s="173"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="175"/>
+      <c r="A107" s="173"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="175">
+      <c r="A132" s="173">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="175"/>
+      <c r="A133" s="173"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="175"/>
+      <c r="A134" s="173"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="175"/>
+      <c r="A135" s="173"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="175"/>
+      <c r="A136" s="173"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="175"/>
+      <c r="A137" s="173"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="175"/>
+      <c r="A138" s="173"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="175"/>
+      <c r="A139" s="173"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="175">
+      <c r="A164" s="173">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="175"/>
+      <c r="A165" s="173"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="175"/>
+      <c r="A166" s="173"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="175"/>
+      <c r="A167" s="173"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="175"/>
+      <c r="A168" s="173"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="175"/>
+      <c r="A169" s="173"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="175"/>
+      <c r="A170" s="173"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="175"/>
+      <c r="A171" s="173"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="175">
+      <c r="A196" s="173">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="175"/>
+      <c r="A197" s="173"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="175"/>
+      <c r="A198" s="173"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="175"/>
+      <c r="A199" s="173"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="175"/>
+      <c r="A200" s="173"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="175"/>
+      <c r="A201" s="173"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="175"/>
+      <c r="A202" s="173"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="175"/>
+      <c r="A203" s="173"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="175">
+      <c r="A228" s="173">
         <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="175"/>
+      <c r="A229" s="173"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="175"/>
+      <c r="A230" s="173"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="175"/>
+      <c r="A231" s="173"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="175"/>
+      <c r="A232" s="173"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="175"/>
+      <c r="A233" s="173"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="175"/>
+      <c r="A234" s="173"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="175"/>
+      <c r="A235" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41531,243 +41600,243 @@
     <col min="10" max="10" width="44.42578125" customWidth="1"/>
     <col min="11" max="11" width="65" customWidth="1"/>
     <col min="12" max="12" width="116.7109375" customWidth="1"/>
-    <col min="13" max="13" width="44.42578125" style="87" customWidth="1"/>
+    <col min="13" max="13" width="44.42578125" style="86" customWidth="1"/>
     <col min="14" max="21" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="70" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C70" s="176" t="s">
-        <v>184</v>
+      <c r="C70" s="174" t="s">
+        <v>183</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="174" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="174" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="177" t="s">
+        <v>173</v>
+      </c>
+      <c r="G70" s="174" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70" s="174"/>
+      <c r="J70" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="174"/>
+      <c r="L70" s="174"/>
+      <c r="M70" s="174"/>
+    </row>
+    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C71" s="174"/>
+      <c r="D71" s="174"/>
+      <c r="E71" s="174"/>
+      <c r="F71" s="174"/>
+      <c r="G71" s="174"/>
+      <c r="H71" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="I71" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="J71" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="K71" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="L71" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="M71" s="83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
+      <c r="C72" s="175" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="176"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="79"/>
+      <c r="L72" s="80"/>
+      <c r="M72" s="84"/>
+    </row>
+    <row r="73" spans="3:13" s="2" customFormat="1" ht="139.5">
+      <c r="C73" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="176" t="s">
-        <v>168</v>
+      <c r="D73" s="2" t="s">
+        <v>169</v>
       </c>
-      <c r="F70" s="179" t="s">
-        <v>174</v>
+      <c r="E73" s="76" t="s">
+        <v>197</v>
       </c>
-      <c r="G70" s="176" t="s">
-        <v>167</v>
+      <c r="F73" s="77" t="s">
+        <v>175</v>
       </c>
-      <c r="H70" s="176" t="s">
-        <v>173</v>
+      <c r="G73" s="77" t="s">
+        <v>176</v>
       </c>
-      <c r="I70" s="176"/>
-      <c r="J70" s="176" t="s">
-        <v>3</v>
+      <c r="H73" s="78" t="s">
+        <v>177</v>
       </c>
-      <c r="K70" s="176"/>
-      <c r="L70" s="176"/>
-      <c r="M70" s="176"/>
-    </row>
-    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C71" s="176"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="75" t="s">
-        <v>172</v>
+      <c r="I73" s="79" t="s">
+        <v>178</v>
       </c>
-      <c r="I71" s="76" t="s">
-        <v>164</v>
+      <c r="J73" s="2" t="s">
+        <v>180</v>
       </c>
-      <c r="J71" s="75" t="s">
-        <v>171</v>
+      <c r="K73" s="2" t="s">
+        <v>181</v>
       </c>
-      <c r="K71" s="75" t="s">
-        <v>165</v>
+      <c r="L73" s="80" t="s">
+        <v>179</v>
       </c>
-      <c r="L71" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="M71" s="84" t="s">
+      <c r="M73" s="84" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
-      <c r="C72" s="177" t="s">
-        <v>200</v>
+    <row r="74" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="D74" s="81" t="s">
+        <v>182</v>
       </c>
-      <c r="D72" s="178"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="78"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="80"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="85"/>
-    </row>
-    <row r="73" spans="3:13" s="2" customFormat="1" ht="139.5">
-      <c r="C73" s="89" t="s">
-        <v>170</v>
+      <c r="E74" s="2" t="s">
+        <v>196</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>170</v>
+      <c r="G74" s="77" t="s">
+        <v>194</v>
       </c>
-      <c r="E73" s="77" t="s">
-        <v>198</v>
+      <c r="J74" s="2" t="s">
+        <v>180</v>
       </c>
-      <c r="F73" s="78" t="s">
-        <v>176</v>
-      </c>
-      <c r="G73" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="H73" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="I73" s="80" t="s">
-        <v>179</v>
-      </c>
-      <c r="J73" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L73" s="81" t="s">
-        <v>180</v>
-      </c>
-      <c r="M73" s="85" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D74" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G74" s="78" t="s">
+      <c r="L74" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L74" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="M74" s="85" t="s">
-        <v>194</v>
+      <c r="M74" s="84" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C75" s="88" t="s">
-        <v>199</v>
+      <c r="C75" s="87" t="s">
+        <v>198</v>
       </c>
-      <c r="M75" s="86"/>
+      <c r="M75" s="85"/>
     </row>
     <row r="76" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D76" s="82" t="s">
+      <c r="D76" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="M76" s="85"/>
+    </row>
+    <row r="77" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="D77" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="M76" s="86"/>
+      <c r="M77" s="85"/>
     </row>
-    <row r="77" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="D77" s="82" t="s">
+    <row r="78" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C78" s="82" t="s">
+        <v>184</v>
+      </c>
+      <c r="M78" s="85"/>
+    </row>
+    <row r="79" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C79" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="M79" s="85"/>
+    </row>
+    <row r="80" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C80" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="M80" s="85"/>
+    </row>
+    <row r="81" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C81" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="M81" s="85"/>
+    </row>
+    <row r="82" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C82" s="82" t="s">
+        <v>188</v>
+      </c>
+      <c r="M82" s="85"/>
+    </row>
+    <row r="83" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
+      <c r="C83" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="M77" s="86"/>
-    </row>
-    <row r="78" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C78" s="83" t="s">
-        <v>185</v>
-      </c>
-      <c r="M78" s="86"/>
-    </row>
-    <row r="79" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C79" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="M79" s="86"/>
-    </row>
-    <row r="80" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C80" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="M80" s="86"/>
-    </row>
-    <row r="81" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C81" s="83" t="s">
-        <v>188</v>
-      </c>
-      <c r="M81" s="86"/>
-    </row>
-    <row r="82" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C82" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="M82" s="86"/>
-    </row>
-    <row r="83" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
-      <c r="C83" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="M83" s="86"/>
+      <c r="M83" s="85"/>
     </row>
     <row r="84" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M84" s="86"/>
+      <c r="M84" s="85"/>
     </row>
     <row r="85" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M85" s="86"/>
+      <c r="M85" s="85"/>
     </row>
     <row r="86" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M86" s="86"/>
+      <c r="M86" s="85"/>
     </row>
     <row r="87" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M87" s="86"/>
+      <c r="M87" s="85"/>
     </row>
     <row r="88" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M88" s="86"/>
+      <c r="M88" s="85"/>
     </row>
     <row r="89" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M89" s="86"/>
+      <c r="M89" s="85"/>
     </row>
     <row r="90" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M90" s="86"/>
+      <c r="M90" s="85"/>
     </row>
     <row r="91" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M91" s="86"/>
+      <c r="M91" s="85"/>
     </row>
     <row r="92" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M92" s="86"/>
+      <c r="M92" s="85"/>
     </row>
     <row r="93" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M93" s="86"/>
+      <c r="M93" s="85"/>
     </row>
     <row r="94" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M94" s="86"/>
+      <c r="M94" s="85"/>
     </row>
     <row r="95" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M95" s="86"/>
+      <c r="M95" s="85"/>
     </row>
     <row r="96" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M96" s="86"/>
+      <c r="M96" s="85"/>
     </row>
     <row r="97" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M97" s="86"/>
+      <c r="M97" s="85"/>
     </row>
     <row r="98" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M98" s="86"/>
+      <c r="M98" s="85"/>
     </row>
     <row r="99" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M99" s="86"/>
+      <c r="M99" s="85"/>
     </row>
     <row r="100" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M100" s="86"/>
+      <c r="M100" s="85"/>
     </row>
     <row r="101" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M101" s="86"/>
+      <c r="M101" s="85"/>
     </row>
     <row r="102" spans="13:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="M102" s="86"/>
+      <c r="M102" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88373DD-A9E9-4689-A63A-1C157CB89B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B93EC7-E3B2-47A9-9A9A-B4EB8CD326BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Actions" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Work'!$A$5:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Plan Work'!$A$5:$F$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="253">
   <si>
     <t>Num</t>
   </si>
@@ -3897,58 +3897,6 @@
     <t>Build the purchases model</t>
   </si>
   <si>
-    <t>Build the Home Page</t>
-  </si>
-  <si>
-    <t>Build the calculation in the app like amount of purchases products, new products, top selling adv</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Statistical calculations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Home Page</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5232,138 +5180,7 @@
     <t>20-27/11/23</t>
   </si>
   <si>
-    <t>28-29/11/23</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - improve and sync store data</t>
-    </r>
-  </si>
-  <si>
     <t>Improve and Sync between the external DB [Firebase] and the internal DB [redux]</t>
-  </si>
-  <si>
-    <t>29/11/23-5/12/23</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Users collection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - optimization</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Tests</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Build dashboard page - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionally</t>
-    </r>
   </si>
   <si>
     <t>I will add a dashboard page that gives the possibility to manage the necessary data</t>
@@ -5376,6 +5193,247 @@
   </si>
   <si>
     <t>10-11/12/2023</t>
+  </si>
+  <si>
+    <t>Authentication to Firebase with email and password</t>
+  </si>
+  <si>
+    <t>29/11/23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Authentication App</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Assign roles</t>
+    </r>
+  </si>
+  <si>
+    <t>Assign admin and regular roles, use service cloud.firestore</t>
+  </si>
+  <si>
+    <t>30/11/23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Share components</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Home Page and Statistical calculations</t>
+    </r>
+  </si>
+  <si>
+    <t>Build the Home Page, and the calculation in the app like amount of purchases products, new products, top selling adv</t>
+  </si>
+  <si>
+    <t>1-2/12/23</t>
+  </si>
+  <si>
+    <t>3-5/12/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved the display of the parent components, and building sharing between components </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - improve and sync store data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Users collection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - optimization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Build dashboard page - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optionally</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Tests</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6728,6 +6786,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -6740,14 +6801,95 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6776,16 +6918,7 @@
     <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6800,86 +6933,11 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6893,16 +6951,19 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6945,9 +7006,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -39251,10 +39309,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:F29"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
@@ -39272,44 +39330,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="109" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="46">
@@ -39328,7 +39386,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>72</v>
@@ -39345,9 +39403,9 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="106" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="47" t="s">
@@ -39362,9 +39420,9 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="C9" s="106"/>
+      <c r="C9" s="107"/>
       <c r="D9" s="46" t="s">
         <v>70</v>
       </c>
@@ -39377,7 +39435,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>76</v>
@@ -39386,7 +39444,7 @@
         <v>146</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>124</v>
@@ -39394,7 +39452,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>147</v>
@@ -39403,7 +39461,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>124</v>
@@ -39411,7 +39469,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>148</v>
@@ -39420,7 +39478,7 @@
         <v>144</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>124</v>
@@ -39428,7 +39486,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>149</v>
@@ -39437,7 +39495,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -39445,7 +39503,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="46" t="s">
         <v>150</v>
@@ -39454,7 +39512,7 @@
         <v>142</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>124</v>
@@ -39462,16 +39520,16 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" s="46" t="s">
         <v>151</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>124</v>
@@ -39479,16 +39537,16 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D16" s="46" t="s">
         <v>152</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>124</v>
@@ -39496,151 +39554,185 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>153</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="30">
       <c r="B18" s="46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30">
+    <row r="19" spans="2:6">
       <c r="B19" s="46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30">
+    <row r="20" spans="2:6">
       <c r="B20" s="46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" ht="30">
       <c r="B21" s="46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>161</v>
+        <v>247</v>
       </c>
-      <c r="E21" s="104" t="s">
-        <v>244</v>
+      <c r="E21" s="46" t="s">
+        <v>245</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" ht="30">
       <c r="B22" s="46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
-      <c r="E22" s="104" t="s">
-        <v>245</v>
+      <c r="E22" s="46" t="s">
+        <v>246</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="23" spans="2:6" ht="30">
+    <row r="23" spans="2:6">
       <c r="B23" s="46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>243</v>
+        <v>157</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="46">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
-      <c r="E24" s="104">
-        <v>45272</v>
+      <c r="E24" s="104" t="s">
+        <v>234</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="37.5">
-      <c r="C25" s="89" t="s">
-        <v>200</v>
+    <row r="25" spans="2:6" ht="30">
+      <c r="B25" s="46">
+        <v>20</v>
       </c>
-      <c r="D25" s="178" t="s">
-        <v>201</v>
+      <c r="C25" s="46" t="s">
+        <v>251</v>
       </c>
+      <c r="D25" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="46">
+        <v>21</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="104">
+        <v>45272</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" ht="37.5">
       <c r="C27" s="89" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
-      <c r="D27" s="178" t="s">
-        <v>203</v>
+      <c r="D27" s="105" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="37.5">
-      <c r="D29" s="178" t="s">
-        <v>204</v>
+      <c r="C29" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="37.5">
+      <c r="D31" s="105" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -39653,14 +39745,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F24">
+  <conditionalFormatting sqref="F6:F26">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -39690,36 +39782,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="149"/>
+      <c r="F4" s="133"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="136"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39728,10 +39820,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B6" s="114">
+      <c r="B6" s="142">
         <v>1</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="121" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -39745,63 +39837,63 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B7" s="115"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="124" t="s">
-        <v>222</v>
+      <c r="B7" s="143"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="112" t="s">
+        <v>218</v>
       </c>
-      <c r="E7" s="123" t="s">
-        <v>227</v>
+      <c r="E7" s="135" t="s">
+        <v>223</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B8" s="115"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="121"/>
+      <c r="B8" s="143"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="99" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B9" s="115"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="121"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="99" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B10" s="115"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="121"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="136"/>
       <c r="F10" s="100"/>
     </row>
     <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B11" s="133"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="152"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="137"/>
       <c r="F11" s="101" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="22.5">
       <c r="B12" s="129">
         <v>2</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="145" t="s">
+      <c r="D12" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="116" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -39810,62 +39902,62 @@
     </row>
     <row r="13" spans="2:6" ht="22.5">
       <c r="B13" s="130"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="143"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="117"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="22.5">
       <c r="B14" s="130"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="143"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="117"/>
       <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="22.5">
       <c r="B15" s="130"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="143"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5">
       <c r="B16" s="130"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="143"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.5">
       <c r="B17" s="130"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="143"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="117"/>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.5">
       <c r="B18" s="130"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="143"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="117"/>
       <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B19" s="144"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="147"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
@@ -39877,13 +39969,13 @@
       <c r="B20" s="129">
         <v>3</v>
       </c>
-      <c r="C20" s="137" t="s">
+      <c r="C20" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="145" t="s">
+      <c r="D20" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="142" t="s">
+      <c r="E20" s="116" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="41" t="s">
@@ -39892,44 +39984,44 @@
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
       <c r="B21" s="130"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="143"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="117"/>
       <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
       <c r="B22" s="130"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="143"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="117"/>
       <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
       <c r="B23" s="130"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="143"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
       <c r="B24" s="130"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="143"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="144"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="147"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
@@ -39941,13 +40033,13 @@
       <c r="B26" s="129">
         <v>4</v>
       </c>
-      <c r="C26" s="137" t="s">
+      <c r="C26" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="145" t="s">
+      <c r="D26" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="116" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="41" t="s">
@@ -39956,26 +40048,26 @@
     </row>
     <row r="27" spans="2:6" ht="22.5">
       <c r="B27" s="130"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="143"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="117"/>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="22.5">
       <c r="B28" s="130"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="143"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="117"/>
       <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B29" s="131"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="124"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="112"/>
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
@@ -40004,13 +40096,13 @@
       <c r="B31" s="129">
         <v>6</v>
       </c>
-      <c r="C31" s="137" t="s">
+      <c r="C31" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="142" t="s">
+      <c r="E31" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="41" t="s">
@@ -40019,16 +40111,16 @@
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
       <c r="B32" s="130"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="143"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="117"/>
       <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="139"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
@@ -40072,10 +40164,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="114">
+      <c r="B36" s="142">
         <v>9</v>
       </c>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="121" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -40089,12 +40181,12 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="115"/>
-      <c r="C37" s="112"/>
-      <c r="D37" s="124" t="s">
+      <c r="B37" s="143"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="123" t="s">
+      <c r="E37" s="135" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="55" t="s">
@@ -40102,37 +40194,37 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="115"/>
-      <c r="C38" s="112"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="121"/>
+      <c r="B38" s="143"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="136"/>
       <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="115"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="121"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="136"/>
       <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="115"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="122"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="149"/>
       <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="115"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="123" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="135" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="57" t="s">
@@ -40140,54 +40232,54 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B42" s="115"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="125"/>
-      <c r="E42" s="121"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="136"/>
       <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="115"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="121"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="136"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="115"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="121"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="136"/>
       <c r="F44" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="115"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="121"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="136"/>
       <c r="F45" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="115"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="122"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="149"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="75">
-      <c r="B47" s="115"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="124" t="s">
+      <c r="B47" s="143"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="112" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -40198,10 +40290,10 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="115"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="127" t="s">
+      <c r="B48" s="143"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="152" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="58" t="s">
@@ -40209,28 +40301,28 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="115"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="127"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="152"/>
       <c r="F49" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="115"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="127"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="116"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="128"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="141"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="153"/>
       <c r="F51" s="60" t="s">
         <v>99</v>
       </c>
@@ -40239,7 +40331,7 @@
       <c r="B52" s="94"/>
       <c r="C52" s="95"/>
       <c r="D52" s="96" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E52" s="102" t="s">
         <v>13</v>
@@ -40247,16 +40339,16 @@
       <c r="F52" s="103"/>
     </row>
     <row r="53" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B53" s="115">
+      <c r="B53" s="143">
         <v>10</v>
       </c>
-      <c r="C53" s="119" t="s">
+      <c r="C53" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="117" t="s">
+      <c r="D53" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="121" t="s">
+      <c r="E53" s="136" t="s">
         <v>118</v>
       </c>
       <c r="F53" s="62" t="s">
@@ -40264,78 +40356,78 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B54" s="115"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="121"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="136"/>
       <c r="F54" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B55" s="115"/>
-      <c r="C55" s="119"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="121"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="136"/>
       <c r="F55" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B56" s="115"/>
-      <c r="C56" s="119"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="121"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="136"/>
       <c r="F56" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B57" s="116"/>
-      <c r="C57" s="120"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="122"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="146"/>
+      <c r="E57" s="149"/>
       <c r="F57" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B58" s="33"/>
-      <c r="C58" s="111" t="s">
+      <c r="C58" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D58" s="72" t="s">
-        <v>206</v>
+      <c r="F58" s="37" t="s">
+        <v>204</v>
       </c>
-      <c r="E58" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" s="37" t="s">
+      <c r="G58" s="120" t="s">
         <v>208</v>
-      </c>
-      <c r="G58" s="153" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B59" s="33"/>
-      <c r="C59" s="132"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="G59" s="153"/>
+      <c r="G59" s="120"/>
     </row>
     <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B60" s="94"/>
       <c r="C60" s="95"/>
       <c r="D60" s="96" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E60" s="97"/>
       <c r="F60" s="14"/>
@@ -40344,24 +40436,24 @@
     <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B61" s="94"/>
       <c r="C61" s="95" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
-      <c r="D61" s="154" t="s">
-        <v>230</v>
+      <c r="D61" s="123" t="s">
+        <v>226</v>
       </c>
       <c r="E61" s="97"/>
       <c r="F61" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G61" s="91"/>
     </row>
     <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B62" s="94"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="134"/>
+      <c r="D62" s="124"/>
       <c r="E62" s="97"/>
       <c r="F62" s="14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G62" s="91"/>
     </row>
@@ -40389,10 +40481,10 @@
       <c r="F65" s="50"/>
     </row>
     <row r="66" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G66" s="153"/>
+      <c r="G66" s="120"/>
     </row>
     <row r="67" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G67" s="153"/>
+      <c r="G67" s="120"/>
     </row>
     <row r="68" spans="2:7" s="90" customFormat="1" ht="43.5" customHeight="1">
       <c r="G68" s="91"/>
@@ -40453,14 +40545,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C36:C51"/>
+    <mergeCell ref="B36:B51"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="D37:D46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="D7:D11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="D31:D32"/>
@@ -40477,22 +40577,14 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D12:D19"/>
     <mergeCell ref="E7:E11"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C36:C51"/>
-    <mergeCell ref="B36:B51"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="D37:D46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40522,12 +40614,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -40566,16 +40658,16 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="161"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
-      <c r="B7" s="164" t="s">
+      <c r="B7" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="168" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -40585,12 +40677,12 @@
         <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="165"/>
-      <c r="C8" s="168"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="16" t="s">
         <v>61</v>
       </c>
@@ -40599,8 +40691,8 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="165"/>
-      <c r="C9" s="168"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="16" t="s">
         <v>60</v>
       </c>
@@ -40609,30 +40701,30 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="165"/>
-      <c r="C10" s="168"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="165"/>
-      <c r="C11" s="168"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="166"/>
-      <c r="C12" s="169"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="170"/>
       <c r="D12" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>55</v>
@@ -40667,16 +40759,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="162" t="s">
+      <c r="D17" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="163" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40687,8 +40779,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40697,8 +40789,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="163"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40707,10 +40799,10 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="160"/>
-      <c r="C21" s="161"/>
+      <c r="B21" s="162"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>55</v>
@@ -40745,16 +40837,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="162" t="s">
+      <c r="D26" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="163"/>
+      <c r="E26" s="161"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="163" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40765,8 +40857,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="160"/>
-      <c r="C28" s="161"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40775,16 +40867,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40821,16 +40913,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="162" t="s">
+      <c r="D34" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="163"/>
+      <c r="E34" s="161"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="160" t="s">
+      <c r="B35" s="162" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="161" t="s">
+      <c r="C35" s="163" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40841,8 +40933,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="160"/>
-      <c r="C36" s="161"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="163"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40851,18 +40943,18 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="160"/>
-      <c r="C37" s="161"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="163"/>
       <c r="D37" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="160"/>
-      <c r="C38" s="161"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="163"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40872,18 +40964,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40897,6 +40977,18 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40949,10 +41041,10 @@
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="168" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -40964,8 +41056,8 @@
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="168"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="169"/>
       <c r="D7" s="16" t="s">
         <v>61</v>
       </c>
@@ -40975,8 +41067,8 @@
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="168"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="16" t="s">
         <v>60</v>
       </c>
@@ -40986,28 +41078,28 @@
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="168"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="169"/>
       <c r="D9" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="168"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="166"/>
-      <c r="C11" s="169"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="170"/>
       <c r="D11" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="19"/>
     </row>
@@ -41125,16 +41217,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="162" t="s">
+      <c r="D27" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="163"/>
+      <c r="E27" s="161"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="162" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="163" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -41143,42 +41235,42 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="160"/>
-      <c r="C29" s="161"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="160"/>
-      <c r="C30" s="161"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="160"/>
-      <c r="C31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="163"/>
       <c r="D31" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E31" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41215,46 +41307,46 @@
     </row>
     <row r="3" spans="1:26">
       <c r="S3" s="67"/>
-      <c r="T3" s="172" t="s">
+      <c r="T3" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
+      <c r="U3" s="173"/>
+      <c r="V3" s="173"/>
+      <c r="W3" s="173"/>
+      <c r="X3" s="173"/>
+      <c r="Y3" s="173"/>
       <c r="Z3" s="68"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="173">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
       <c r="S4" s="67"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
       <c r="Z4" s="68"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="173"/>
+      <c r="A5" s="174"/>
       <c r="S5" s="67"/>
-      <c r="T5" s="170" t="s">
+      <c r="T5" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="171" t="s">
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
       <c r="Z5" s="68"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="173"/>
+      <c r="A6" s="174"/>
       <c r="S6" s="67"/>
       <c r="V6" t="s">
         <v>80</v>
@@ -41263,7 +41355,7 @@
       <c r="Z6" s="68"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="173"/>
+      <c r="A7" s="174"/>
       <c r="S7" s="67"/>
       <c r="W7" s="15"/>
       <c r="Y7" t="s">
@@ -41272,13 +41364,13 @@
       <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="173"/>
+      <c r="A8" s="174"/>
       <c r="S8" s="67"/>
       <c r="W8" s="15"/>
       <c r="Z8" s="68"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="173"/>
+      <c r="A9" s="174"/>
       <c r="S9" s="67"/>
       <c r="V9" t="s">
         <v>82</v>
@@ -41287,13 +41379,13 @@
       <c r="Z9" s="68"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="173"/>
+      <c r="A10" s="174"/>
       <c r="S10" s="67"/>
       <c r="W10" s="15"/>
       <c r="Z10" s="68"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="173"/>
+      <c r="A11" s="174"/>
       <c r="S11" s="67"/>
       <c r="W11" s="15"/>
       <c r="Z11" s="68"/>
@@ -41379,186 +41471,186 @@
       <c r="Z25" s="71"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="173">
+      <c r="A36" s="174">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="173"/>
+      <c r="A37" s="174"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="173"/>
+      <c r="A38" s="174"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="173"/>
+      <c r="A39" s="174"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="173"/>
+      <c r="A40" s="174"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="173"/>
+      <c r="A41" s="174"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="173"/>
+      <c r="A42" s="174"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="173"/>
+      <c r="A43" s="174"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="173">
+      <c r="A68" s="174">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="173"/>
+      <c r="A69" s="174"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="173"/>
+      <c r="A70" s="174"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="173"/>
+      <c r="A71" s="174"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="173"/>
+      <c r="A72" s="174"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="173"/>
+      <c r="A73" s="174"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="173"/>
+      <c r="A74" s="174"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="173"/>
+      <c r="A75" s="174"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="173">
+      <c r="A100" s="174">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="173"/>
+      <c r="A101" s="174"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="173"/>
+      <c r="A102" s="174"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="173"/>
+      <c r="A103" s="174"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="173"/>
+      <c r="A104" s="174"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="173"/>
+      <c r="A105" s="174"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="173"/>
+      <c r="A106" s="174"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="173"/>
+      <c r="A107" s="174"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="173">
+      <c r="A132" s="174">
         <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="173"/>
+      <c r="A133" s="174"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="173"/>
+      <c r="A134" s="174"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="173"/>
+      <c r="A135" s="174"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="173"/>
+      <c r="A136" s="174"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="173"/>
+      <c r="A137" s="174"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="173"/>
+      <c r="A138" s="174"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="173"/>
+      <c r="A139" s="174"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="173">
+      <c r="A164" s="174">
         <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="173"/>
+      <c r="A165" s="174"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="173"/>
+      <c r="A166" s="174"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="173"/>
+      <c r="A167" s="174"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="173"/>
+      <c r="A168" s="174"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="173"/>
+      <c r="A169" s="174"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="173"/>
+      <c r="A170" s="174"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="173"/>
+      <c r="A171" s="174"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="173">
+      <c r="A196" s="174">
         <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="173"/>
+      <c r="A197" s="174"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="173"/>
+      <c r="A198" s="174"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="173"/>
+      <c r="A199" s="174"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="173"/>
+      <c r="A200" s="174"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="173"/>
+      <c r="A201" s="174"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="173"/>
+      <c r="A202" s="174"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="173"/>
+      <c r="A203" s="174"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="173">
+      <c r="A228" s="174">
         <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="173"/>
+      <c r="A229" s="174"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="173"/>
+      <c r="A230" s="174"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="173"/>
+      <c r="A231" s="174"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="173"/>
+      <c r="A232" s="174"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="173"/>
+      <c r="A233" s="174"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="173"/>
+      <c r="A234" s="174"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="173"/>
+      <c r="A235" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -41605,62 +41697,62 @@
   </cols>
   <sheetData>
     <row r="70" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C70" s="174" t="s">
-        <v>183</v>
+      <c r="C70" s="175" t="s">
+        <v>179</v>
       </c>
-      <c r="D70" s="174" t="s">
+      <c r="D70" s="175" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="175" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="G70" s="175" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="175" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="174" t="s">
+      <c r="I70" s="175"/>
+      <c r="J70" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="175"/>
+      <c r="L70" s="175"/>
+      <c r="M70" s="175"/>
+    </row>
+    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="C71" s="175"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="175"/>
+      <c r="H71" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="177" t="s">
-        <v>173</v>
+      <c r="I71" s="75" t="s">
+        <v>159</v>
       </c>
-      <c r="G70" s="174" t="s">
+      <c r="J71" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="174" t="s">
-        <v>172</v>
-      </c>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174" t="s">
-        <v>3</v>
-      </c>
-      <c r="K70" s="174"/>
-      <c r="L70" s="174"/>
-      <c r="M70" s="174"/>
-    </row>
-    <row r="71" spans="3:13" s="2" customFormat="1" ht="45.75" customHeight="1">
-      <c r="C71" s="174"/>
-      <c r="D71" s="174"/>
-      <c r="E71" s="174"/>
-      <c r="F71" s="174"/>
-      <c r="G71" s="174"/>
-      <c r="H71" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="I71" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="J71" s="74" t="s">
-        <v>170</v>
-      </c>
       <c r="K71" s="74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L71" s="74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M71" s="83" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="3:13" s="2" customFormat="1" ht="151.5" customHeight="1">
-      <c r="C72" s="175" t="s">
-        <v>199</v>
+      <c r="C72" s="176" t="s">
+        <v>195</v>
       </c>
-      <c r="D72" s="176"/>
+      <c r="D72" s="177"/>
       <c r="E72" s="76"/>
       <c r="F72" s="77"/>
       <c r="G72" s="77"/>
@@ -41671,113 +41763,113 @@
     </row>
     <row r="73" spans="3:13" s="2" customFormat="1" ht="139.5">
       <c r="C73" s="88" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E73" s="76" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F73" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G73" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="H73" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L73" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="G73" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="I73" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="L73" s="80" t="s">
-        <v>179</v>
-      </c>
       <c r="M73" s="84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D74" s="81" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G74" s="77" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L74" s="80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M74" s="84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C75" s="87" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M75" s="85"/>
     </row>
     <row r="76" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D76" s="81" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M76" s="85"/>
     </row>
     <row r="77" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="D77" s="81" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M77" s="85"/>
     </row>
     <row r="78" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C78" s="82" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M78" s="85"/>
     </row>
     <row r="79" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C79" s="82" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M79" s="85"/>
     </row>
     <row r="80" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C80" s="82" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M80" s="85"/>
     </row>
     <row r="81" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C81" s="82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M81" s="85"/>
     </row>
     <row r="82" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C82" s="82" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M82" s="85"/>
     </row>
     <row r="83" spans="3:13" s="2" customFormat="1" ht="201" customHeight="1">
       <c r="C83" s="82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M83" s="85"/>
     </row>

--- a/Final-React-Project-Design.xlsx
+++ b/Final-React-Project-Design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basheer\Desktop\בשיר\Full Stack Work\Full Stack Cors - YanivArad\Projects\React-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B93EC7-E3B2-47A9-9A9A-B4EB8CD326BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56C0E93-6794-408C-9044-14A5B843BD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="970" xr2:uid="{6C9ACC65-0954-4C83-9435-0755A94AE81B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="250">
   <si>
     <t>Num</t>
   </si>
@@ -4929,9 +4929,6 @@
     <t>18/11/23</t>
   </si>
   <si>
-    <t>Improving the efficiency of the application</t>
-  </si>
-  <si>
     <t>28/11/23</t>
   </si>
   <si>
@@ -5183,16 +5180,10 @@
     <t>Improve and Sync between the external DB [Firebase] and the internal DB [redux]</t>
   </si>
   <si>
-    <t>I will add a dashboard page that gives the possibility to manage the necessary data</t>
-  </si>
-  <si>
     <t>5-7/12/2023</t>
   </si>
   <si>
     <t>8-9/12/2023</t>
-  </si>
-  <si>
-    <t>10-11/12/2023</t>
   </si>
   <si>
     <t>Authentication to Firebase with email and password</t>
@@ -5389,7 +5380,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Step 15</t>
+      <t>Step 16</t>
     </r>
     <r>
       <rPr>
@@ -5399,48 +5390,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Build dashboard page - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optionally</t>
+      <t xml:space="preserve"> - Tests</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Step 16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Tests</t>
-    </r>
+    <t>Used memoization hooks for optimizing the performance of my app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5862,13 +5823,6 @@
       <color rgb="FF6F42C1"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -6801,95 +6755,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6918,7 +6791,16 @@
     <xf numFmtId="0" fontId="47" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6933,11 +6815,86 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6951,19 +6908,16 @@
     <xf numFmtId="0" fontId="25" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -39309,10 +39263,10 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:F31"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="15"/>
@@ -39461,7 +39415,7 @@
         <v>143</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>124</v>
@@ -39478,7 +39432,7 @@
         <v>144</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>124</v>
@@ -39495,7 +39449,7 @@
         <v>145</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>124</v>
@@ -39512,7 +39466,7 @@
         <v>142</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>124</v>
@@ -39529,7 +39483,7 @@
         <v>151</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>124</v>
@@ -39546,7 +39500,7 @@
         <v>152</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>124</v>
@@ -39563,7 +39517,7 @@
         <v>153</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>124</v>
@@ -39574,13 +39528,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>124</v>
@@ -39591,13 +39545,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>124</v>
@@ -39608,13 +39562,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>124</v>
@@ -39625,13 +39579,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>124</v>
@@ -39642,13 +39596,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>124</v>
@@ -39659,79 +39613,70 @@
         <v>18</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D23" s="46" t="s">
         <v>157</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" ht="30">
       <c r="B24" s="46">
         <v>19</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="25" spans="2:6" ht="30">
+    <row r="25" spans="2:6">
       <c r="B25" s="46">
         <v>20</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="46">
-        <v>21</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="104">
+      <c r="E25" s="104">
         <v>45272</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="27" spans="2:6" ht="37.5">
-      <c r="C27" s="89" t="s">
+    <row r="26" spans="2:6" ht="37.5">
+      <c r="C26" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D26" s="105" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="37.5">
-      <c r="C29" s="89" t="s">
+    <row r="28" spans="2:6" ht="37.5">
+      <c r="C28" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="105" t="s">
+      <c r="D28" s="105" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="37.5">
-      <c r="D31" s="105" t="s">
+    <row r="30" spans="2:6" ht="37.5">
+      <c r="D30" s="105" t="s">
         <v>200</v>
       </c>
     </row>
@@ -39745,14 +39690,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F26">
+  <conditionalFormatting sqref="F6:F25">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="V">
       <formula>NOT(ISERROR(SEARCH("V",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C27" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{B5AF2755-436A-4008-9BA4-CBBB84CC1736}"/>
+    <hyperlink ref="C28" r:id="rId2" xr:uid="{3D76CBC8-DA15-470A-8E1E-DBBC4061AE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -39782,36 +39727,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="51.75" customHeight="1">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1">
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="118" t="s">
+      <c r="C4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="133"/>
+      <c r="F4" s="150"/>
     </row>
     <row r="5" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B5" s="126"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="31" t="s">
         <v>9</v>
       </c>
@@ -39820,10 +39765,10 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B6" s="142">
+      <c r="B6" s="115">
         <v>1</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="112" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -39837,63 +39782,63 @@
       </c>
     </row>
     <row r="7" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B7" s="143"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="112" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="135" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="99" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B8" s="116"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="99" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B8" s="143"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="99" t="s">
+    <row r="9" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B9" s="116"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="99" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B9" s="143"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="99" t="s">
+    <row r="10" spans="2:6" ht="34.5" customHeight="1">
+      <c r="B10" s="116"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="100"/>
+    </row>
+    <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
+      <c r="B11" s="134"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="101" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B10" s="143"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="100"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B11" s="155"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="101" t="s">
-        <v>222</v>
-      </c>
-    </row>
     <row r="12" spans="2:6" ht="22.5">
-      <c r="B12" s="129">
+      <c r="B12" s="130">
         <v>2</v>
       </c>
-      <c r="C12" s="113" t="s">
+      <c r="C12" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="143" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="38" t="s">
@@ -39901,63 +39846,63 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="22.5">
-      <c r="B13" s="130"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="117"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="144"/>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="22.5">
-      <c r="B14" s="130"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="117"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="144"/>
       <c r="F14" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="22.5">
-      <c r="B15" s="130"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="117"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="144"/>
       <c r="F15" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="22.5">
-      <c r="B16" s="130"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="117"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="22.5">
-      <c r="B17" s="130"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="117"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="144"/>
       <c r="F17" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="22.5">
-      <c r="B18" s="130"/>
-      <c r="C18" s="114"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="117"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="144"/>
       <c r="F18" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B19" s="131"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="132"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="148"/>
       <c r="E19" s="40" t="s">
         <v>13</v>
       </c>
@@ -39966,16 +39911,16 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B20" s="129">
+      <c r="B20" s="130">
         <v>3</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="143" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="41" t="s">
@@ -39983,45 +39928,45 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B21" s="130"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="117"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="144"/>
       <c r="F21" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B22" s="130"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="117"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="144"/>
       <c r="F22" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B23" s="130"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="117"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="26" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B24" s="130"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="117"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B25" s="131"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="132"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="148"/>
       <c r="E25" s="40" t="s">
         <v>13</v>
       </c>
@@ -40030,16 +39975,16 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="22.5">
-      <c r="B26" s="129">
+      <c r="B26" s="130">
         <v>4</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="C26" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="116" t="s">
+      <c r="E26" s="143" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="41" t="s">
@@ -40047,27 +39992,27 @@
       </c>
     </row>
     <row r="27" spans="2:6" ht="22.5">
-      <c r="B27" s="130"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="117"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="144"/>
       <c r="F27" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="22.5">
-      <c r="B28" s="130"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="117"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="144"/>
       <c r="F28" s="29" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="42" customHeight="1" thickBot="1">
-      <c r="B29" s="154"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="112"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="12" t="s">
         <v>13</v>
       </c>
@@ -40093,16 +40038,16 @@
       </c>
     </row>
     <row r="31" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B31" s="129">
+      <c r="B31" s="130">
         <v>6</v>
       </c>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="127" t="s">
+      <c r="D31" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="116" t="s">
+      <c r="E31" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="41" t="s">
@@ -40110,17 +40055,17 @@
       </c>
     </row>
     <row r="32" spans="2:6" ht="34.5" customHeight="1">
-      <c r="B32" s="130"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="117"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="144"/>
       <c r="F32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="B33" s="131"/>
-      <c r="C33" s="115"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="140"/>
       <c r="D33" s="39" t="s">
         <v>39</v>
       </c>
@@ -40164,10 +40109,10 @@
       </c>
     </row>
     <row r="36" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B36" s="142">
+      <c r="B36" s="115">
         <v>9</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="112" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -40181,12 +40126,12 @@
       </c>
     </row>
     <row r="37" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B37" s="143"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="112" t="s">
+      <c r="B37" s="116"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="125" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="135" t="s">
+      <c r="E37" s="124" t="s">
         <v>96</v>
       </c>
       <c r="F37" s="55" t="s">
@@ -40194,37 +40139,37 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B38" s="143"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="136"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="122"/>
       <c r="F38" s="51" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B39" s="143"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="136"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="122"/>
       <c r="F39" s="51" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B40" s="143"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="149"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="123"/>
       <c r="F40" s="56" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B41" s="143"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="135" t="s">
+      <c r="B41" s="116"/>
+      <c r="C41" s="113"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="124" t="s">
         <v>98</v>
       </c>
       <c r="F41" s="57" t="s">
@@ -40232,54 +40177,54 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B42" s="143"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="136"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="122"/>
       <c r="F42" s="58" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="43" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B43" s="143"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="136"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="122"/>
       <c r="F43" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B44" s="143"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="136"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="122"/>
       <c r="F44" s="59" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B45" s="143"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="122"/>
       <c r="F45" s="59" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B46" s="143"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="149"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="123"/>
       <c r="F46" s="60" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="75">
-      <c r="B47" s="143"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="112" t="s">
+      <c r="B47" s="116"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="125" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="10" t="s">
@@ -40290,10 +40235,10 @@
       </c>
     </row>
     <row r="48" spans="2:6" ht="42.75" customHeight="1">
-      <c r="B48" s="143"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="152" t="s">
+      <c r="B48" s="116"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="128" t="s">
         <v>109</v>
       </c>
       <c r="F48" s="58" t="s">
@@ -40301,28 +40246,28 @@
       </c>
     </row>
     <row r="49" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B49" s="143"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="152"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="128"/>
       <c r="F49" s="59" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B50" s="143"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="152"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="128"/>
       <c r="F50" s="59" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B51" s="144"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="153"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="114"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="129"/>
       <c r="F51" s="60" t="s">
         <v>99</v>
       </c>
@@ -40331,7 +40276,7 @@
       <c r="B52" s="94"/>
       <c r="C52" s="95"/>
       <c r="D52" s="96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E52" s="102" t="s">
         <v>13</v>
@@ -40339,16 +40284,16 @@
       <c r="F52" s="103"/>
     </row>
     <row r="53" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B53" s="143">
+      <c r="B53" s="116">
         <v>10</v>
       </c>
-      <c r="C53" s="147" t="s">
+      <c r="C53" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="145" t="s">
+      <c r="D53" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="136" t="s">
+      <c r="E53" s="122" t="s">
         <v>118</v>
       </c>
       <c r="F53" s="62" t="s">
@@ -40356,44 +40301,44 @@
       </c>
     </row>
     <row r="54" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B54" s="143"/>
-      <c r="C54" s="147"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="136"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="122"/>
       <c r="F54" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B55" s="143"/>
-      <c r="C55" s="147"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="136"/>
+      <c r="B55" s="116"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="122"/>
       <c r="F55" s="63" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="42.75" customHeight="1">
-      <c r="B56" s="143"/>
-      <c r="C56" s="147"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="136"/>
+      <c r="B56" s="116"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="118"/>
+      <c r="E56" s="122"/>
       <c r="F56" s="62" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
-      <c r="B57" s="144"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="149"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="119"/>
+      <c r="E57" s="123"/>
       <c r="F57" s="62" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B58" s="33"/>
-      <c r="C58" s="121" t="s">
+      <c r="C58" s="112" t="s">
         <v>201</v>
       </c>
       <c r="D58" s="72" t="s">
@@ -40405,13 +40350,13 @@
       <c r="F58" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="G58" s="120" t="s">
+      <c r="G58" s="154" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B59" s="33"/>
-      <c r="C59" s="122"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="72" t="s">
         <v>203</v>
       </c>
@@ -40421,13 +40366,13 @@
       <c r="F59" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="120"/>
+      <c r="G59" s="154"/>
     </row>
     <row r="60" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B60" s="94"/>
       <c r="C60" s="95"/>
       <c r="D60" s="96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E60" s="97"/>
       <c r="F60" s="14"/>
@@ -40436,24 +40381,24 @@
     <row r="61" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B61" s="94"/>
       <c r="C61" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
-      <c r="D61" s="123" t="s">
-        <v>226</v>
+      <c r="D61" s="155" t="s">
+        <v>225</v>
       </c>
       <c r="E61" s="97"/>
       <c r="F61" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G61" s="91"/>
     </row>
     <row r="62" spans="2:7" ht="42.75" customHeight="1" thickBot="1">
       <c r="B62" s="94"/>
       <c r="C62" s="95"/>
-      <c r="D62" s="124"/>
+      <c r="D62" s="135"/>
       <c r="E62" s="97"/>
       <c r="F62" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G62" s="91"/>
     </row>
@@ -40481,10 +40426,10 @@
       <c r="F65" s="50"/>
     </row>
     <row r="66" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G66" s="120"/>
+      <c r="G66" s="154"/>
     </row>
     <row r="67" spans="2:7" s="90" customFormat="1" ht="45.75" customHeight="1">
-      <c r="G67" s="120"/>
+      <c r="G67" s="154"/>
     </row>
     <row r="68" spans="2:7" s="90" customFormat="1" ht="43.5" customHeight="1">
       <c r="G68" s="91"/>
@@ -40545,6 +40490,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="E12:E18"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="E7:E11"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C36:C51"/>
     <mergeCell ref="B36:B51"/>
@@ -40561,30 +40530,6 @@
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="D7:D11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D61:D62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -40614,12 +40559,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30.75">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="156" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -40630,20 +40575,20 @@
       <c r="M2" s="4"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="160"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -40658,10 +40603,10 @@
       <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="160" t="s">
+      <c r="D6" s="163" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="161"/>
+      <c r="E6" s="164"/>
     </row>
     <row r="7" spans="2:13" ht="23.25" customHeight="1">
       <c r="B7" s="165" t="s">
@@ -40731,20 +40676,20 @@
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="158" t="s">
+      <c r="D15" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="159"/>
+      <c r="E15" s="160"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
       <c r="D16" s="17" t="s">
         <v>54</v>
       </c>
@@ -40759,16 +40704,16 @@
       <c r="C17" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="160" t="s">
+      <c r="D17" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="164"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="163" t="s">
+      <c r="C18" s="162" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -40779,8 +40724,8 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="162"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="162"/>
       <c r="D19" s="16" t="s">
         <v>58</v>
       </c>
@@ -40789,8 +40734,8 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="162"/>
-      <c r="C20" s="163"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="162"/>
       <c r="D20" s="16" t="s">
         <v>59</v>
       </c>
@@ -40799,8 +40744,8 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="162"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="162"/>
       <c r="D21" s="16" t="s">
         <v>210</v>
       </c>
@@ -40809,20 +40754,20 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="156" t="s">
+      <c r="B24" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="159"/>
+      <c r="E24" s="160"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="17" t="s">
         <v>54</v>
       </c>
@@ -40837,16 +40782,16 @@
       <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="160" t="s">
+      <c r="D26" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="161"/>
+      <c r="E26" s="164"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="163" t="s">
+      <c r="C27" s="162" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
@@ -40857,8 +40802,8 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="162"/>
-      <c r="C28" s="163"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="162"/>
       <c r="D28" s="16" t="s">
         <v>64</v>
       </c>
@@ -40867,16 +40812,16 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="16" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="16" t="s">
         <v>65</v>
       </c>
@@ -40885,20 +40830,20 @@
       </c>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="156" t="s">
+      <c r="C32" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="158" t="s">
+      <c r="D32" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="159"/>
+      <c r="E32" s="160"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="17" t="s">
         <v>54</v>
       </c>
@@ -40913,16 +40858,16 @@
       <c r="C34" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="161"/>
+      <c r="E34" s="164"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="162" t="s">
+      <c r="B35" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="163" t="s">
+      <c r="C35" s="162" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -40933,8 +40878,8 @@
       </c>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="162"/>
-      <c r="C36" s="163"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="162"/>
       <c r="D36" s="16" t="s">
         <v>58</v>
       </c>
@@ -40943,8 +40888,8 @@
       </c>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="162"/>
-      <c r="C37" s="163"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="162"/>
       <c r="D37" s="16" t="s">
         <v>170</v>
       </c>
@@ -40953,8 +40898,8 @@
       </c>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="162"/>
-      <c r="C38" s="163"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="162"/>
       <c r="D38" s="16" t="s">
         <v>131</v>
       </c>
@@ -40964,6 +40909,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -40977,18 +40934,6 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41017,21 +40962,21 @@
   <sheetData>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="C4" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="158" t="s">
+      <c r="D4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="159"/>
+      <c r="E4" s="160"/>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="23.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="17" t="s">
         <v>54</v>
       </c>
@@ -41189,20 +41134,20 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="23.25">
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="159"/>
+      <c r="E25" s="160"/>
     </row>
     <row r="26" spans="1:5" ht="23.25">
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
@@ -41217,16 +41162,16 @@
       <c r="C27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="160" t="s">
+      <c r="D27" s="163" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="161"/>
+      <c r="E27" s="164"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" customHeight="1">
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="161" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="163" t="s">
+      <c r="C28" s="162" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="16" t="s">
@@ -41235,24 +41180,24 @@
       <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="23.25">
-      <c r="B29" s="162"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" ht="23.25">
-      <c r="B31" s="162"/>
-      <c r="C31" s="163"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="16" t="s">
         <v>210</v>
       </c>
@@ -41260,17 +41205,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
